--- a/output2.xlsx
+++ b/output2.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W263"/>
+  <dimension ref="A1:W262"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +496,7 @@
         <v>SUGAR - GLUCOSE - CITRIC ACID - STARCH    - PISTACHIO -  MIXED NUTS (سكر - غلوكوز - فاكهة طبيعية - حمض الليمون - نشاء -بخور-مكسرات)</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -505,7 +505,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K2" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L2" t="str">
         <v/>
@@ -567,7 +567,7 @@
         <v>SUGAR - GLUCOSE - CITRIC ACID - NATURAL FRUITS - MIXED NUTS (سكر - غلوكوز - حمض الليمون - فاكهة طبيعية - مكسرات مشكلة)</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -576,7 +576,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K3" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L3" t="str">
         <v/>
@@ -638,7 +638,7 @@
         <v>FIGS - ALMOND (تين - لوز)</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I4" t="str">
         <v/>
@@ -647,7 +647,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K4" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L4" t="str">
         <v/>
@@ -709,7 +709,7 @@
         <v>DATE FRUIT - MANDARINE FRUIT - SUGAR - GLUCOSE - CITRIC ACID (تمر - مندرين - سكر - غلوكوز - حمض الليمون)</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -718,7 +718,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K5" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L5" t="str">
         <v/>
@@ -780,7 +780,7 @@
         <v>SUGAR - GLUCOSE - STARCHY MATERIAL - CITRIC ACID - TAHINA - CURCUM - PINE SEEDS. (سكر- غلوكوز - مادة نشوية - حمض الليمون - طحينة - كركم - صنوبر)</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I6" t="str">
         <v/>
@@ -789,7 +789,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K6" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -851,7 +851,7 @@
         <v>DATES - ALMOND (تمر - لوز)</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -860,7 +860,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K7" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -922,7 +922,7 @@
         <v>SUGAR - SESAME OIL -  WAYFER - PISTACHIO - FLOUR-VANILLA (سكر - زيت السمسم -  وايفر -فستق حلبي - طحين- فانيللا)</v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -931,7 +931,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K8" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L8" t="str">
         <v/>
@@ -993,7 +993,7 @@
         <v>DATES - SESAME OIL - SUGAR - GLUCOSE - FLOUR - VANILLA - SPICES-EGG WHITE (تمر - زلال البيض- فانيللا- زيت السمسم - سكر - غلوكوز - طحين -  بهارات)</v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -1002,7 +1002,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K9" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L9" t="str">
         <v/>
@@ -1064,7 +1064,7 @@
         <v>APRICOT- SESAME OIL - SUGAR - GLUCOSE - FLOUR - CORN FLAKES (مشمش - - رقائق الذرة -   زيت السمسم - سكر - غلوكوز - طحين -)</v>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -1073,7 +1073,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K10" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L10" t="str">
         <v/>
@@ -1135,7 +1135,7 @@
         <v>SUGAR - GLUCOSE -  STARCH - CITRIC ACID - NATURAL FRUITS - ALMOND (سكر - غلوكوز - حمض الليمون - فاكهة طبيعية -  لوز -)</v>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -1144,7 +1144,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K11" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L11" t="str">
         <v/>
@@ -1206,7 +1206,7 @@
         <v>SUGAR - GLUCOSE - CITRIC ACID - STARCH    - PISTACHIO -MIXED NUTS (سكر - غلوكوز - فاكهة طبيعية - حمض الليمون - نشاء - بخور- مكسرات)</v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -1215,7 +1215,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K12" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L12" t="str">
         <v/>
@@ -1277,7 +1277,7 @@
         <v>SUGAR - GLUCOSE -  STARCH - CITRIC ACID - NATURAL FRUITS - ALMOND (سكر نشاء- غلوكوز - حمض الليمون - فاكهة طبيعية -  لوز -)</v>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -1286,7 +1286,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K13" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L13" t="str">
         <v/>
@@ -1348,7 +1348,7 @@
         <v>SUGAR - GLUCOSE -  CITRIC ACID - MASTIC - PISTACHIO - COCONUT (سكر - غلوكوز - حمض الليمون-  مسكة -فستق حلبي - جوز هند- نشاء- قمح)</v>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -1357,7 +1357,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K14" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L14" t="str">
         <v/>
@@ -1419,7 +1419,7 @@
         <v>SUGAR  - MIXED NUTS - DRY ROSES (سكر -  - مكسرات مشكلة - ورد مجفف)</v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -1428,7 +1428,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K15" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L15" t="str">
         <v/>
@@ -1490,7 +1490,7 @@
         <v>SUGAR - GLUCOSE - EGG WHITE - MIXED NUTS -NATURAL FLAVOURS- DRY ROSES (ورد مجفف - سكر - غلوكوز - زلال البيض - مكسرات مشكلة  -نكهات -طبيعية- فانيللا)</v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I16" t="str">
         <v/>
@@ -1499,7 +1499,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K16" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L16" t="str">
         <v/>
@@ -1561,7 +1561,7 @@
         <v>SUGAR - GLUCOSE - COCONUT - MIXED SPICES - MIXED NUTS - CITRIC ACID - STARCHY MATERIALS (سكر - غلوكوز - جوز هند -  مكسرات مشكلة - بهارات مشكلة - حمض الليمون - نشاء)</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -1570,7 +1570,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K17" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L17" t="str">
         <v/>
@@ -1632,7 +1632,7 @@
         <v>SUGAR - GLUCOSE - EGG WHITE -NATURAL FLAVOURS -MIXED NUTS- APRICOT - PLUMS (مشمش - خوخ - سكر - غلوكوز - زلال البيض  -مكسرات مشكلة)</v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1641,7 +1641,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K18" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L18" t="str">
         <v/>
@@ -1703,7 +1703,7 @@
         <v>GLUCOSE - SUGAR - STARCH - FIGS - MIXED NUTS - SESAME (سكر -نشاء- غلوكوز-تين - حمض الليمون-سمسم-  مكسرات)</v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1712,7 +1712,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K19" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L19" t="str">
         <v/>
@@ -1774,7 +1774,7 @@
         <v>FIGS - WALNUT (تين - جوز)</v>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I20" t="str">
         <v/>
@@ -1783,7 +1783,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K20" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L20" t="str">
         <v/>
@@ -1845,7 +1845,7 @@
         <v>SUGAR - SESAME OIL -  WAYFER - PISTACHIO - FLOUR (سكر - زيت السمسم -  وايفر -فستق حلبي - طحين- غلوكوز- فانيللا)</v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1854,7 +1854,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K21" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L21" t="str">
         <v/>
@@ -1916,7 +1916,7 @@
         <v>SUGAR - GLUCOSE - COCONUT - MIXED SPICES - MIXED NUTS - CITRIC ACID - STARCHY MATERIAL (سكر - غلوكوز - جوز هند -  مكسرات مشكلة - بهارات مشكلة - حمض الليمون - نشاء)</v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1925,7 +1925,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K22" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L22" t="str">
         <v/>
@@ -1987,7 +1987,7 @@
         <v>PISTACHIO - CARAMEL - SUGAR - GLUCOSE - MILK - COW BUTTER - ALMOND (سكر- غلوكوز- زلال البيض- لوز- زبدة- حليب- فستق)</v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -1996,7 +1996,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K23" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L23" t="str">
         <v/>
@@ -2058,7 +2058,7 @@
         <v>APRICOT - GLUCOSE - SUGAR - EGG WHITE - VANILLA - PISTACHIO (سكر- غلوكوز- زلال البيض- لوز- زبدة- حليب- مشمش-فانيللا- فستق)</v>
       </c>
       <c r="H24" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I24" t="str">
         <v/>
@@ -2067,7 +2067,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K24" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L24" t="str">
         <v/>
@@ -2129,7 +2129,7 @@
         <v>APRICOT - GLUCOSE - SUGAR - CHOCOLATE (مشمش - غلوكوز - سكر - شوكولا)</v>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I25" t="str">
         <v/>
@@ -2138,7 +2138,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K25" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L25" t="str">
         <v/>
@@ -2200,7 +2200,7 @@
         <v>APRICOT - GLUCOSE - SUGAR - STARCH - CITRIC ACID - ORANGE - PISTACHIO - WALNUT (سكر- غلوكوز- زلال البيض- مكسرات- حمض الليمون- فواكه طبيعية- - جوز)</v>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I26" t="str">
         <v/>
@@ -2209,7 +2209,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K26" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L26" t="str">
         <v/>
@@ -2271,7 +2271,7 @@
         <v>SESAME - SUGAR (سكر- سمسم)</v>
       </c>
       <c r="H27" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I27" t="str">
         <v/>
@@ -2280,7 +2280,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K27" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L27" t="str">
         <v/>
@@ -2342,7 +2342,7 @@
         <v>GLUCOSE - SUGAR - EGG WHITE - MIXED NUTS - NATURAL FLAVOURS - NATURAL PLANT (سكر- غلوكوز- زلال البيض- مكسرات-نكهات طبيعية)</v>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I28" t="str">
         <v/>
@@ -2351,7 +2351,7 @@
         <v>Gourmet Sweets</v>
       </c>
       <c r="K28" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L28" t="str">
         <v/>
@@ -3318,7 +3318,7 @@
         <v>SW1000</v>
       </c>
       <c r="B42" t="str">
-        <v>SNOW WHITE  BALL BLUE</v>
+        <v>SNOW WHITE  BALL BLUE (سنو وايت مدوّر أزرق)</v>
       </c>
       <c r="C42" t="str">
         <v/>
@@ -3333,10 +3333,10 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي - E132</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - VANILLA - COCONUT - PISTACHIO- E132 (غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي - E132)</v>
       </c>
       <c r="H42" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I42" t="str">
         <v/>
@@ -3345,7 +3345,7 @@
         <v>Snow White</v>
       </c>
       <c r="K42" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L42" t="str">
         <v/>
@@ -3389,7 +3389,7 @@
         <v>SW1001</v>
       </c>
       <c r="B43" t="str">
-        <v>SNOW WHITE  BALL WHITE</v>
+        <v>SNOW WHITE  BALL WHITE (سنو وايت مدوّر أبيض)</v>
       </c>
       <c r="C43" t="str">
         <v/>
@@ -3404,10 +3404,10 @@
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - VANILLA - COCONUT - PISTACHIO (غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي)</v>
       </c>
       <c r="H43" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I43" t="str">
         <v/>
@@ -3416,7 +3416,7 @@
         <v>Snow White</v>
       </c>
       <c r="K43" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L43" t="str">
         <v/>
@@ -3460,7 +3460,7 @@
         <v>SW1002</v>
       </c>
       <c r="B44" t="str">
-        <v>SNOW WHITE  BALL GREEN</v>
+        <v>SNOW WHITE  BALL GREEN (سنو وايت مدوّر أخضر)</v>
       </c>
       <c r="C44" t="str">
         <v/>
@@ -3475,10 +3475,10 @@
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي -E132 -E102</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - VANILLA - COCONUT - PISTACHIO- E132- E102 (غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي -E132 -E102)</v>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I44" t="str">
         <v/>
@@ -3487,7 +3487,7 @@
         <v>Snow White</v>
       </c>
       <c r="K44" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L44" t="str">
         <v/>
@@ -3531,7 +3531,7 @@
         <v>SW1003</v>
       </c>
       <c r="B45" t="str">
-        <v>SNOW WHITE  BALL YELLOW</v>
+        <v>SNOW WHITE  BALL YELLOW (سنو وايت مدوّر أصفر)</v>
       </c>
       <c r="C45" t="str">
         <v/>
@@ -3546,10 +3546,10 @@
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي-E102</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - VANILLA - COCONUT - PISTACHIO-E102 (غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي-E102)</v>
       </c>
       <c r="H45" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I45" t="str">
         <v/>
@@ -3558,7 +3558,7 @@
         <v>Snow White</v>
       </c>
       <c r="K45" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L45" t="str">
         <v/>
@@ -3602,7 +3602,7 @@
         <v>SW1004</v>
       </c>
       <c r="B46" t="str">
-        <v>SNOW WHITE  BALL ORANGE</v>
+        <v>SNOW WHITE  BALL ORANGE (سنو وايت مدوّر برتقالي)</v>
       </c>
       <c r="C46" t="str">
         <v/>
@@ -3617,10 +3617,10 @@
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي - E110</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - VANILLA - COCONUT - PISTACHIO- E110 (غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي - E110)</v>
       </c>
       <c r="H46" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I46" t="str">
         <v/>
@@ -3629,7 +3629,7 @@
         <v>Snow White</v>
       </c>
       <c r="K46" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L46" t="str">
         <v/>
@@ -3673,7 +3673,7 @@
         <v>SW1005</v>
       </c>
       <c r="B47" t="str">
-        <v>SNOW WHITE  BALL PINK</v>
+        <v>SNOW WHITE  BALL PINK (سنو وايت مدوّر زهر)</v>
       </c>
       <c r="C47" t="str">
         <v/>
@@ -3688,10 +3688,10 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي - E129</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - VANILLA - COCONUT - PISTACHIO- E129 (غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي - E129)</v>
       </c>
       <c r="H47" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I47" t="str">
         <v/>
@@ -3700,7 +3700,7 @@
         <v>Snow White</v>
       </c>
       <c r="K47" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L47" t="str">
         <v/>
@@ -3744,7 +3744,7 @@
         <v>SW1006</v>
       </c>
       <c r="B48" t="str">
-        <v>SNOW WHITE  SQUARE</v>
+        <v>SNOW WHITE  SQUARE (سنو وايت مربع)</v>
       </c>
       <c r="C48" t="str">
         <v/>
@@ -3759,10 +3759,10 @@
         <v/>
       </c>
       <c r="G48" t="str">
-        <v>غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - VANILLA - COCONUT - PISTACHIO (غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي)</v>
       </c>
       <c r="H48" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I48" t="str">
         <v/>
@@ -3771,7 +3771,7 @@
         <v>Snow White</v>
       </c>
       <c r="K48" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L48" t="str">
         <v/>
@@ -3815,7 +3815,7 @@
         <v>SW1007</v>
       </c>
       <c r="B49" t="str">
-        <v>SNOW WHITE  (HAND WRAPPED)</v>
+        <v>SNOW WHITE  (HAND WRAPPED) (سنو وايت لف)</v>
       </c>
       <c r="C49" t="str">
         <v/>
@@ -3830,10 +3830,10 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - VANILLA - COCONUT - PISTACHIO (غلوكوز - سكر - زلال البيض - فانيلا - جوز الهند - فستق حلبي)</v>
       </c>
       <c r="H49" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I49" t="str">
         <v/>
@@ -3842,7 +3842,7 @@
         <v>Snow White</v>
       </c>
       <c r="K49" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L49" t="str">
         <v/>
@@ -3886,7 +3886,7 @@
         <v>CH1000</v>
       </c>
       <c r="B50" t="str">
-        <v>EEZO ROCHE HAZELNUT</v>
+        <v>EEZO ROCHE HAZELNUT (ايزو روشيه بندق)</v>
       </c>
       <c r="C50" t="str">
         <v/>
@@ -3901,10 +3901,10 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين- سكر - فانيليا - بندق -)</v>
       </c>
       <c r="H50" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I50" t="str">
         <v/>
@@ -3913,7 +3913,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K50" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L50" t="str">
         <v/>
@@ -3957,7 +3957,7 @@
         <v>CH1001</v>
       </c>
       <c r="B51" t="str">
-        <v>EEZO ROCHE PISTACHIO</v>
+        <v>EEZO ROCHE PISTACHIO (إيزو روشيه فستق)</v>
       </c>
       <c r="C51" t="str">
         <v/>
@@ -3972,10 +3972,10 @@
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - PISTACHIO</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - PISTACHIO (حليب - كاكاو - زبدة الكاكاو -ليستين- سكر - فانيليا - فستق حلبي)</v>
       </c>
       <c r="H51" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I51" t="str">
         <v/>
@@ -3984,7 +3984,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K51" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L51" t="str">
         <v/>
@@ -4028,7 +4028,7 @@
         <v>CH1002</v>
       </c>
       <c r="B52" t="str">
-        <v>EEZO ROCHE ALMOND</v>
+        <v>EEZO ROCHE ALMOND (إيزو روشيه لوز)</v>
       </c>
       <c r="C52" t="str">
         <v/>
@@ -4043,10 +4043,10 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND (حليب - كاكاو - زبدة الكاكاو -ليستين- سكر - فانيليا - لوز)</v>
       </c>
       <c r="H52" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I52" t="str">
         <v/>
@@ -4055,7 +4055,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K52" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L52" t="str">
         <v/>
@@ -4099,7 +4099,7 @@
         <v>CH1003</v>
       </c>
       <c r="B53" t="str">
-        <v>DIAB MOCCA</v>
+        <v>DIAB MOCCA (دياب موكّا)</v>
       </c>
       <c r="C53" t="str">
         <v/>
@@ -4114,10 +4114,10 @@
         <v/>
       </c>
       <c r="G53" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MOCCA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MOCCA (حليب - كاكاو - زبدة الكاكاو -ليستين- سكر - فانيليا - موكا)</v>
       </c>
       <c r="H53" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I53" t="str">
         <v/>
@@ -4126,7 +4126,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K53" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L53" t="str">
         <v/>
@@ -4170,7 +4170,7 @@
         <v>CH1004</v>
       </c>
       <c r="B54" t="str">
-        <v>BOMBE STRAWBERRY BIG</v>
+        <v>BOMBE STRAWBERRY BIG (بومبيه فريز كبير)</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -4185,10 +4185,10 @@
         <v/>
       </c>
       <c r="G54" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - STRAWBERRY</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - STRAWBERRY (حليب - كاكاو - زبدة الكاكاو -ليستين- سكر - فانيليا - فريز)</v>
       </c>
       <c r="H54" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I54" t="str">
         <v/>
@@ -4197,7 +4197,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K54" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L54" t="str">
         <v/>
@@ -4241,7 +4241,7 @@
         <v>CH1005</v>
       </c>
       <c r="B55" t="str">
-        <v>BOMBE MANDARINE BIG</v>
+        <v>BOMBE MANDARINE BIG (بومبيه ماندرين كبير)</v>
       </c>
       <c r="C55" t="str">
         <v/>
@@ -4256,10 +4256,10 @@
         <v/>
       </c>
       <c r="G55" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - MANDARINE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - MANDARINE (حليب - كاكاو - زبدة الكاكاو -ليستين- سكر - فانيليا -موندارين)</v>
       </c>
       <c r="H55" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I55" t="str">
         <v/>
@@ -4268,7 +4268,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K55" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L55" t="str">
         <v/>
@@ -4312,7 +4312,7 @@
         <v>CH1006</v>
       </c>
       <c r="B56" t="str">
-        <v>OUNSA CREAM BITTER SMALL</v>
+        <v>OUNSA CREAM BITTER SMALL (أونصة كريم مر صغيرة)</v>
       </c>
       <c r="C56" t="str">
         <v/>
@@ -4327,10 +4327,10 @@
         <v/>
       </c>
       <c r="G56" t="str">
-        <v>HAZEL NUT OIL -COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>HAZEL NUT OIL -COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (زيت البندق - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا)</v>
       </c>
       <c r="H56" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I56" t="str">
         <v/>
@@ -4339,7 +4339,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K56" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L56" t="str">
         <v/>
@@ -4383,7 +4383,7 @@
         <v>CH1007</v>
       </c>
       <c r="B57" t="str">
-        <v>OUNSA CREAM SWEET SMALL</v>
+        <v>OUNSA CREAM SWEET SMALL (أونصة كريم حلو صغيرة)</v>
       </c>
       <c r="C57" t="str">
         <v/>
@@ -4398,10 +4398,10 @@
         <v/>
       </c>
       <c r="G57" t="str">
-        <v>MILK -HAZEL NUT OIL -  COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK -HAZEL NUT OIL -  COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - زيت البندق - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا)</v>
       </c>
       <c r="H57" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I57" t="str">
         <v/>
@@ -4410,7 +4410,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K57" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L57" t="str">
         <v/>
@@ -4454,7 +4454,7 @@
         <v>CH1008</v>
       </c>
       <c r="B58" t="str">
-        <v>MAYA WAYFER (SQAURE)</v>
+        <v>MAYA WAYFER (SQAURE) (مايا ويفر مربّعة)</v>
       </c>
       <c r="C58" t="str">
         <v/>
@@ -4469,10 +4469,10 @@
         <v/>
       </c>
       <c r="G58" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER (حليب - كاكاو - زبدة الكاكاو - ليستين- سكر - فانيليا - ويفر)</v>
       </c>
       <c r="H58" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I58" t="str">
         <v/>
@@ -4481,7 +4481,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K58" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L58" t="str">
         <v/>
@@ -4525,7 +4525,7 @@
         <v>CH1009</v>
       </c>
       <c r="B59" t="str">
-        <v>JOJO CRUNCH</v>
+        <v>JOJO CRUNCH (جوجو كرانش)</v>
       </c>
       <c r="C59" t="str">
         <v/>
@@ -4540,10 +4540,10 @@
         <v/>
       </c>
       <c r="G59" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - RICE CRISPY</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - RICE CRISPY (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  كرسبي رايز)</v>
       </c>
       <c r="H59" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I59" t="str">
         <v/>
@@ -4552,7 +4552,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K59" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L59" t="str">
         <v/>
@@ -4596,7 +4596,7 @@
         <v>CH1010</v>
       </c>
       <c r="B60" t="str">
-        <v>ROCHE HAZELNUT MOLD SWEET</v>
+        <v>ROCHE HAZELNUT MOLD SWEET (روشيه بندق حلو صب)</v>
       </c>
       <c r="C60" t="str">
         <v/>
@@ -4611,10 +4611,10 @@
         <v/>
       </c>
       <c r="G60" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUT</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUT (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - بندق)</v>
       </c>
       <c r="H60" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I60" t="str">
         <v/>
@@ -4623,7 +4623,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K60" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L60" t="str">
         <v/>
@@ -4667,7 +4667,7 @@
         <v>CH1011</v>
       </c>
       <c r="B61" t="str">
-        <v>ROCHE HAZELNUT MOLD BITTER</v>
+        <v>ROCHE HAZELNUT MOLD BITTER (روشيه بندق مر صب)</v>
       </c>
       <c r="C61" t="str">
         <v/>
@@ -4682,10 +4682,10 @@
         <v/>
       </c>
       <c r="G61" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - بندق)</v>
       </c>
       <c r="H61" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I61" t="str">
         <v/>
@@ -4694,7 +4694,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K61" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L61" t="str">
         <v/>
@@ -4738,7 +4738,7 @@
         <v>CH1012</v>
       </c>
       <c r="B62" t="str">
-        <v>CHOCOLATE APRICOT WITH PISTACHIO</v>
+        <v>CHOCOLATE APRICOT WITH PISTACHIO (ابريكو شوكولا مع فستق)</v>
       </c>
       <c r="C62" t="str">
         <v/>
@@ -4753,10 +4753,10 @@
         <v/>
       </c>
       <c r="G62" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - APRICOT - CITRIC ACID - GLUCOSE -PISTACHIO</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - APRICOT - CITRIC ACID - GLUCOSE -PISTACHIO (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - مشمش - حمض الليمون - غلوكوز - فستق حلبي)</v>
       </c>
       <c r="H62" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I62" t="str">
         <v/>
@@ -4765,7 +4765,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K62" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L62" t="str">
         <v/>
@@ -4809,7 +4809,7 @@
         <v>CH1013</v>
       </c>
       <c r="B63" t="str">
-        <v>CHOCOLATE LEMON SLICE MANDARINE</v>
+        <v>CHOCOLATE LEMON SLICE MANDARINE (حز الليمون مندرين)</v>
       </c>
       <c r="C63" t="str">
         <v/>
@@ -4824,10 +4824,10 @@
         <v/>
       </c>
       <c r="G63" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MANDARINE- CITRIC ACID - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MANDARINE- CITRIC ACID - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - موندارين - حمض الليمون - غلوكوز)</v>
       </c>
       <c r="H63" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I63" t="str">
         <v/>
@@ -4836,7 +4836,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K63" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L63" t="str">
         <v/>
@@ -4880,7 +4880,7 @@
         <v>CH1014</v>
       </c>
       <c r="B64" t="str">
-        <v>THREE HAZELLNUTS CROQUENT SWEET</v>
+        <v>THREE HAZELLNUTS CROQUENT SWEET (ثلاث حبات بندق كروكون حلو)</v>
       </c>
       <c r="C64" t="str">
         <v/>
@@ -4895,10 +4895,10 @@
         <v/>
       </c>
       <c r="G64" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - بندق)</v>
       </c>
       <c r="H64" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I64" t="str">
         <v/>
@@ -4907,7 +4907,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K64" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L64" t="str">
         <v/>
@@ -4951,7 +4951,7 @@
         <v>CH1015</v>
       </c>
       <c r="B65" t="str">
-        <v>THREE HAZELLNUT CROQUINT BITTER</v>
+        <v>THREE HAZELLNUT CROQUINT BITTER (ثلاث حبات بندق كروكون مر)</v>
       </c>
       <c r="C65" t="str">
         <v/>
@@ -4966,10 +4966,10 @@
         <v/>
       </c>
       <c r="G65" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - بندق)</v>
       </c>
       <c r="H65" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I65" t="str">
         <v/>
@@ -4978,7 +4978,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K65" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L65" t="str">
         <v/>
@@ -5022,7 +5022,7 @@
         <v>CH1016</v>
       </c>
       <c r="B66" t="str">
-        <v>CHOCO CREAM</v>
+        <v>CHOCO CREAM (شوكو كريم)</v>
       </c>
       <c r="C66" t="str">
         <v/>
@@ -5037,10 +5037,10 @@
         <v/>
       </c>
       <c r="G66" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - ويفر)</v>
       </c>
       <c r="H66" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I66" t="str">
         <v/>
@@ -5049,7 +5049,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K66" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L66" t="str">
         <v/>
@@ -5093,7 +5093,7 @@
         <v>CH1017</v>
       </c>
       <c r="B67" t="str">
-        <v>EEZO TANGERINE SMALL</v>
+        <v>EEZO TANGERINE SMALL (ايزو افندي صغير)</v>
       </c>
       <c r="C67" t="str">
         <v/>
@@ -5108,10 +5108,10 @@
         <v/>
       </c>
       <c r="G67" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - TANGERINE - GLUCOSE - CITRIC ACID</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - TANGERINE - GLUCOSE - CITRIC ACID (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - صفير - غلوكوز - حمض الليمون)</v>
       </c>
       <c r="H67" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I67" t="str">
         <v/>
@@ -5120,7 +5120,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K67" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L67" t="str">
         <v/>
@@ -5164,7 +5164,7 @@
         <v>CH1018</v>
       </c>
       <c r="B68" t="str">
-        <v>MINO WAFER</v>
+        <v>MINO WAFER (مينو ويفر)</v>
       </c>
       <c r="C68" t="str">
         <v/>
@@ -5179,10 +5179,10 @@
         <v/>
       </c>
       <c r="G68" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER (حليب - كاكاو - زبدة الكاكاو -ليستين -سكر - فانيليا - ويفر)</v>
       </c>
       <c r="H68" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I68" t="str">
         <v/>
@@ -5191,7 +5191,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K68" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L68" t="str">
         <v/>
@@ -5235,7 +5235,7 @@
         <v>CH1019</v>
       </c>
       <c r="B69" t="str">
-        <v>DATE CHOCOLATE</v>
+        <v>DATE CHOCOLATE (تمر شوكولا)</v>
       </c>
       <c r="C69" t="str">
         <v/>
@@ -5250,10 +5250,10 @@
         <v/>
       </c>
       <c r="G69" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - DATES - GLUCOSE - CITRIC ACID</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - DATES - GLUCOSE - CITRIC ACID (حليب - كاكاو ليستين - سكر - فانيليا - تمر - غلوكوز - حمض الليمون)</v>
       </c>
       <c r="H69" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I69" t="str">
         <v/>
@@ -5262,7 +5262,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K69" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L69" t="str">
         <v/>
@@ -5321,10 +5321,10 @@
         <v/>
       </c>
       <c r="G70" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - BISCUITS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - BISCUITS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - بسكويت)</v>
       </c>
       <c r="H70" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I70" t="str">
         <v/>
@@ -5333,7 +5333,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K70" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L70" t="str">
         <v/>
@@ -5377,7 +5377,7 @@
         <v>CH1021</v>
       </c>
       <c r="B71" t="str">
-        <v>CREAM CUP WITH ONE  HAZELLNUT</v>
+        <v>CREAM CUP WITH ONE  HAZELLNUT (فنجان كريم مع بندق)</v>
       </c>
       <c r="C71" t="str">
         <v/>
@@ -5392,10 +5392,10 @@
         <v/>
       </c>
       <c r="G71" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUT OIL - HAZEL NUT</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUT OIL - HAZEL NUT (حليب - كاكاو - زبدة الكاكاو  - ليستين - سكر - فانيليا - زيت البندق - زبدة البدق)</v>
       </c>
       <c r="H71" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I71" t="str">
         <v/>
@@ -5404,7 +5404,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K71" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L71" t="str">
         <v/>
@@ -5448,7 +5448,7 @@
         <v>CH1022</v>
       </c>
       <c r="B72" t="str">
-        <v>LONG RIMA  SWEET</v>
+        <v>LONG RIMA  SWEET (طويلة ريما)</v>
       </c>
       <c r="C72" t="str">
         <v/>
@@ -5463,10 +5463,10 @@
         <v/>
       </c>
       <c r="G72" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS)</v>
       </c>
       <c r="H72" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I72" t="str">
         <v/>
@@ -5475,7 +5475,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K72" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L72" t="str">
         <v/>
@@ -5519,7 +5519,7 @@
         <v>CH1022</v>
       </c>
       <c r="B73" t="str">
-        <v>LONG RIMA  DARK</v>
+        <v>LONG RIMA  DARK (طويلة ريما مر)</v>
       </c>
       <c r="C73" t="str">
         <v/>
@@ -5534,10 +5534,10 @@
         <v/>
       </c>
       <c r="G73" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS)</v>
       </c>
       <c r="H73" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I73" t="str">
         <v/>
@@ -5546,7 +5546,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K73" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L73" t="str">
         <v/>
@@ -5590,7 +5590,7 @@
         <v>CH1023</v>
       </c>
       <c r="B74" t="str">
-        <v>LONG THIN CROQUIN SWEET</v>
+        <v>LONG THIN CROQUIN SWEET (طويلة رقيقة كروكون حلو)</v>
       </c>
       <c r="C74" t="str">
         <v/>
@@ -5605,10 +5605,10 @@
         <v/>
       </c>
       <c r="G74" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS (MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS)</v>
       </c>
       <c r="H74" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I74" t="str">
         <v/>
@@ -5617,7 +5617,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K74" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L74" t="str">
         <v/>
@@ -5661,7 +5661,7 @@
         <v>CH1024</v>
       </c>
       <c r="B75" t="str">
-        <v>LONG THIN CROQUIN BITTER</v>
+        <v>LONG THIN CROQUIN BITTER (طويلة رقيقة كروكون مر)</v>
       </c>
       <c r="C75" t="str">
         <v/>
@@ -5676,10 +5676,10 @@
         <v/>
       </c>
       <c r="G75" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS (COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS)</v>
       </c>
       <c r="H75" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I75" t="str">
         <v/>
@@ -5688,7 +5688,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K75" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L75" t="str">
         <v/>
@@ -5732,7 +5732,7 @@
         <v>CH1025</v>
       </c>
       <c r="B76" t="str">
-        <v>BALLL WALNUT AND PISTACHIOS DARK</v>
+        <v>BALLL WALNUT AND PISTACHIOS DARK (بول جوز و فستق مر)</v>
       </c>
       <c r="C76" t="str">
         <v/>
@@ -5747,10 +5747,10 @@
         <v/>
       </c>
       <c r="G76" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WALNUT - PISTACHIO - GLUCOSE</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WALNUT - PISTACHIO - GLUCOSE (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - جوز - فستق حلبي -  غلوكوز)</v>
       </c>
       <c r="H76" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I76" t="str">
         <v/>
@@ -5759,7 +5759,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K76" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L76" t="str">
         <v/>
@@ -5803,7 +5803,7 @@
         <v>CH1026</v>
       </c>
       <c r="B77" t="str">
-        <v>BALLL WALNUT AND PISTACHIOS SWEET</v>
+        <v>BALLL WALNUT AND PISTACHIOS SWEET (بول جوز و فستق حلو)</v>
       </c>
       <c r="C77" t="str">
         <v/>
@@ -5818,10 +5818,10 @@
         <v/>
       </c>
       <c r="G77" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WALNUT - PISTACHIO - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WALNUT - PISTACHIO - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - جوز - فستق حلبي -  غلوكوز)</v>
       </c>
       <c r="H77" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I77" t="str">
         <v/>
@@ -5830,7 +5830,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K77" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L77" t="str">
         <v/>
@@ -5874,7 +5874,7 @@
         <v>CH1027</v>
       </c>
       <c r="B78" t="str">
-        <v>BALL BANANA</v>
+        <v>BALL BANANA (بول موز)</v>
       </c>
       <c r="C78" t="str">
         <v/>
@@ -5889,10 +5889,10 @@
         <v/>
       </c>
       <c r="G78" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUT OIL - BANANA NATURAL FLAVOUR - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUT OIL - BANANA NATURAL FLAVOUR - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - زيت البندق - نكهة الموز الطبيعية -  غلوكو)</v>
       </c>
       <c r="H78" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I78" t="str">
         <v/>
@@ -5901,7 +5901,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K78" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L78" t="str">
         <v/>
@@ -5945,7 +5945,7 @@
         <v>CH1028</v>
       </c>
       <c r="B79" t="str">
-        <v>BALL COCONUT</v>
+        <v>BALL COCONUT (بول جوز هند)</v>
       </c>
       <c r="C79" t="str">
         <v/>
@@ -5960,10 +5960,10 @@
         <v/>
       </c>
       <c r="G79" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - EGG WHITE- COCONUT NATURAL FLAVOUR - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - EGG WHITE- COCONUT NATURAL FLAVOUR - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - زلال البيض - نكهة جوز الهند الطبيعية -  غلوكوز)</v>
       </c>
       <c r="H79" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I79" t="str">
         <v/>
@@ -5972,7 +5972,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K79" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L79" t="str">
         <v/>
@@ -6016,7 +6016,7 @@
         <v>CH1029</v>
       </c>
       <c r="B80" t="str">
-        <v>MAYA  HAZELLNUT (SQUARE)</v>
+        <v>MAYA  HAZELLNUT (SQUARE) (مربع مايا كسر)</v>
       </c>
       <c r="C80" t="str">
         <v/>
@@ -6031,10 +6031,10 @@
         <v/>
       </c>
       <c r="G80" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZEL NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - بندق)</v>
       </c>
       <c r="H80" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I80" t="str">
         <v/>
@@ -6043,7 +6043,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K80" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L80" t="str">
         <v/>
@@ -6087,7 +6087,7 @@
         <v>CH1030</v>
       </c>
       <c r="B81" t="str">
-        <v>CHOCOLATE WAFER RAHESH</v>
+        <v>CHOCOLATE WAFER RAHESH (شوكولا ويفر رهش)</v>
       </c>
       <c r="C81" t="str">
         <v/>
@@ -6102,10 +6102,10 @@
         <v/>
       </c>
       <c r="G81" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - SESAME OIL - WAFER</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - SESAME OIL - WAFER (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - ويفر - زيت السمسم)</v>
       </c>
       <c r="H81" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I81" t="str">
         <v/>
@@ -6114,7 +6114,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K81" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L81" t="str">
         <v/>
@@ -6158,7 +6158,7 @@
         <v>CH1031</v>
       </c>
       <c r="B82" t="str">
-        <v>CHOCOLATE MALBAN WAFER</v>
+        <v>CHOCOLATE MALBAN WAFER (شوكولا ملبن ويفر)</v>
       </c>
       <c r="C82" t="str">
         <v/>
@@ -6173,10 +6173,10 @@
         <v/>
       </c>
       <c r="G82" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - - WAFER - GLUCOSE - STARCH - MASTIC - CITRIC ACID</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - - WAFER - GLUCOSE - STARCH - MASTIC - CITRIC ACID (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - ويفر - غلوكوز - نشاء - مستكه - حمض الليمون)</v>
       </c>
       <c r="H82" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I82" t="str">
         <v/>
@@ -6185,7 +6185,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K82" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L82" t="str">
         <v/>
@@ -6229,7 +6229,7 @@
         <v>CH1032</v>
       </c>
       <c r="B83" t="str">
-        <v>BONNE SANTE  HELO  SWEET</v>
+        <v>BONNE SANTE  HELO  SWEET (بون سونتيه حلو)</v>
       </c>
       <c r="C83" t="str">
         <v/>
@@ -6244,10 +6244,10 @@
         <v/>
       </c>
       <c r="G83" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - لوز)</v>
       </c>
       <c r="H83" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I83" t="str">
         <v/>
@@ -6256,7 +6256,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K83" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L83" t="str">
         <v/>
@@ -6300,7 +6300,7 @@
         <v>CH1033</v>
       </c>
       <c r="B84" t="str">
-        <v>BONNE SANTE  DARK</v>
+        <v>BONNE SANTE  DARK (بون سونتيه مر)</v>
       </c>
       <c r="C84" t="str">
         <v/>
@@ -6315,10 +6315,10 @@
         <v/>
       </c>
       <c r="G84" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - لوز)</v>
       </c>
       <c r="H84" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I84" t="str">
         <v/>
@@ -6327,7 +6327,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K84" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L84" t="str">
         <v/>
@@ -6386,10 +6386,10 @@
         <v/>
       </c>
       <c r="G85" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H85" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I85" t="str">
         <v/>
@@ -6398,7 +6398,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K85" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L85" t="str">
         <v/>
@@ -6457,10 +6457,10 @@
         <v/>
       </c>
       <c r="G86" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H86" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I86" t="str">
         <v/>
@@ -6469,7 +6469,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K86" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L86" t="str">
         <v/>
@@ -6513,7 +6513,7 @@
         <v>CH1036</v>
       </c>
       <c r="B87" t="str">
-        <v>TREE LEAF CREAM SWEET</v>
+        <v>TREE LEAF CREAM SWEET (ورقة شجر كريم حلو)</v>
       </c>
       <c r="C87" t="str">
         <v/>
@@ -6528,10 +6528,10 @@
         <v/>
       </c>
       <c r="G87" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - SESAME OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - SESAME OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -زيت السمسم)</v>
       </c>
       <c r="H87" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I87" t="str">
         <v/>
@@ -6540,7 +6540,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K87" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L87" t="str">
         <v/>
@@ -6584,7 +6584,7 @@
         <v>CH1037</v>
       </c>
       <c r="B88" t="str">
-        <v>TREE LEAF CREAM BITTER</v>
+        <v>TREE LEAF CREAM BITTER (ورقة شجر كريم مر)</v>
       </c>
       <c r="C88" t="str">
         <v/>
@@ -6599,10 +6599,10 @@
         <v/>
       </c>
       <c r="G88" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - SESAME OIL</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - SESAME OIL (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -زيت السمسم)</v>
       </c>
       <c r="H88" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I88" t="str">
         <v/>
@@ -6611,7 +6611,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K88" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L88" t="str">
         <v/>
@@ -6655,7 +6655,7 @@
         <v>CH1038</v>
       </c>
       <c r="B89" t="str">
-        <v>OUNSA CARAMEL BIG</v>
+        <v>OUNSA CARAMEL BIG (اونصة كراميل كبيرة)</v>
       </c>
       <c r="C89" t="str">
         <v/>
@@ -6670,10 +6670,10 @@
         <v/>
       </c>
       <c r="G89" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - COW BUTTER - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - COW BUTTER - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -زبدة بقر - غلوكوز)</v>
       </c>
       <c r="H89" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I89" t="str">
         <v/>
@@ -6682,7 +6682,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K89" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L89" t="str">
         <v/>
@@ -6726,7 +6726,7 @@
         <v>CH1039</v>
       </c>
       <c r="B90" t="str">
-        <v>LULU CARAMEL (SQUARE)</v>
+        <v>LULU CARAMEL (SQUARE) (لولو كراميل مربعة)</v>
       </c>
       <c r="C90" t="str">
         <v/>
@@ -6741,10 +6741,10 @@
         <v/>
       </c>
       <c r="G90" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - COW BUTTER - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA  - COW BUTTER - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -    زبدة بقر - غلوكوز)</v>
       </c>
       <c r="H90" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I90" t="str">
         <v/>
@@ -6753,7 +6753,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K90" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L90" t="str">
         <v/>
@@ -6797,7 +6797,7 @@
         <v>CH1040</v>
       </c>
       <c r="B91" t="str">
-        <v>LULU FLOWER AQUA (SQUARE)</v>
+        <v>LULU FLOWER AQUA (SQUARE) (مربّعة لولو ماء زهر)</v>
       </c>
       <c r="C91" t="str">
         <v/>
@@ -6812,10 +6812,10 @@
         <v/>
       </c>
       <c r="G91" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ROSE EXTRACT</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ROSE EXTRACT (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  ورد اكسترا)</v>
       </c>
       <c r="H91" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I91" t="str">
         <v/>
@@ -6824,7 +6824,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K91" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L91" t="str">
         <v/>
@@ -6868,7 +6868,7 @@
         <v>CH1041</v>
       </c>
       <c r="B92" t="str">
-        <v>THIN MINT SQUARE BIG</v>
+        <v>THIN MINT SQUARE BIG (مربّعة رقيقة نعنع كبيرة)</v>
       </c>
       <c r="C92" t="str">
         <v/>
@@ -6883,10 +6883,10 @@
         <v/>
       </c>
       <c r="G92" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MINT - EGG WHITE - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MINT - EGG WHITE - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  نعنع - زلال البيض - غلوكوز -)</v>
       </c>
       <c r="H92" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I92" t="str">
         <v/>
@@ -6895,7 +6895,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K92" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L92" t="str">
         <v/>
@@ -6939,7 +6939,7 @@
         <v>CH1042</v>
       </c>
       <c r="B93" t="str">
-        <v>TABLET BIG</v>
+        <v>TABLET BIG (تابلات كبيرة)</v>
       </c>
       <c r="C93" t="str">
         <v/>
@@ -6954,10 +6954,10 @@
         <v/>
       </c>
       <c r="G93" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H93" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I93" t="str">
         <v/>
@@ -6966,7 +6966,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K93" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L93" t="str">
         <v/>
@@ -7010,7 +7010,7 @@
         <v>CH1043</v>
       </c>
       <c r="B94" t="str">
-        <v>MINT TABLET SMALL</v>
+        <v>MINT TABLET SMALL (تبلات نعنع صغير)</v>
       </c>
       <c r="C94" t="str">
         <v/>
@@ -7025,10 +7025,10 @@
         <v/>
       </c>
       <c r="G94" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MINT - EGG WHITE - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MINT - EGG WHITE - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  نعنع - زلال البيض - غلوكوز -)</v>
       </c>
       <c r="H94" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I94" t="str">
         <v/>
@@ -7037,7 +7037,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K94" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L94" t="str">
         <v/>
@@ -7081,7 +7081,7 @@
         <v>CH1044</v>
       </c>
       <c r="B95" t="str">
-        <v>STRAWBERRY TABLET SMALL</v>
+        <v>STRAWBERRY TABLET SMALL (تبلات فريز صغير)</v>
       </c>
       <c r="C95" t="str">
         <v/>
@@ -7096,10 +7096,10 @@
         <v/>
       </c>
       <c r="G95" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - STRAWBERRY - EGG WHITE - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - STRAWBERRY - EGG WHITE - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  فريز - زلال البيض - غلوكوز)</v>
       </c>
       <c r="H95" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I95" t="str">
         <v/>
@@ -7108,7 +7108,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K95" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L95" t="str">
         <v/>
@@ -7152,7 +7152,7 @@
         <v>CH1045</v>
       </c>
       <c r="B96" t="str">
-        <v>JANDUYA TABLET SMALL</v>
+        <v>JANDUYA TABLET SMALL (تبلات جندويا صغير)</v>
       </c>
       <c r="C96" t="str">
         <v/>
@@ -7167,10 +7167,10 @@
         <v/>
       </c>
       <c r="G96" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - زيت البندق)</v>
       </c>
       <c r="H96" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I96" t="str">
         <v/>
@@ -7179,7 +7179,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K96" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L96" t="str">
         <v/>
@@ -7223,7 +7223,7 @@
         <v>CH1046</v>
       </c>
       <c r="B97" t="str">
-        <v>COCONUT TABLET SMALL</v>
+        <v>COCONUT TABLET SMALL (تبلات جوز هند صغير)</v>
       </c>
       <c r="C97" t="str">
         <v/>
@@ -7238,10 +7238,10 @@
         <v/>
       </c>
       <c r="G97" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - COCNUT - EGG WHITE - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - COCNUT - EGG WHITE - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -   جوز الهند - زلال البيض - غلوكوز)</v>
       </c>
       <c r="H97" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I97" t="str">
         <v/>
@@ -7250,7 +7250,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K97" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L97" t="str">
         <v/>
@@ -7294,7 +7294,7 @@
         <v>CH1047</v>
       </c>
       <c r="B98" t="str">
-        <v>MASHED TABLET SMALL</v>
+        <v>MASHED TABLET SMALL (تبلات كسر صغير)</v>
       </c>
       <c r="C98" t="str">
         <v/>
@@ -7309,10 +7309,10 @@
         <v/>
       </c>
       <c r="G98" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -   مكسرات مشكلة)</v>
       </c>
       <c r="H98" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I98" t="str">
         <v/>
@@ -7321,7 +7321,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K98" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L98" t="str">
         <v/>
@@ -7365,7 +7365,7 @@
         <v>CH1048</v>
       </c>
       <c r="B99" t="str">
-        <v>HOTEL THICK PLAIN CHOCOLATE SQUARE SWEET</v>
+        <v>HOTEL THICK PLAIN CHOCOLATE SQUARE SWEET (مربّعة أوتيل سادة سميك حلو)</v>
       </c>
       <c r="C99" t="str">
         <v/>
@@ -7380,10 +7380,10 @@
         <v/>
       </c>
       <c r="G99" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H99" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I99" t="str">
         <v/>
@@ -7392,7 +7392,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K99" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L99" t="str">
         <v/>
@@ -7436,7 +7436,7 @@
         <v>CH1049</v>
       </c>
       <c r="B100" t="str">
-        <v>HOTEL THICK PLAIN CHOCOLATE SQUARE BITTER</v>
+        <v>HOTEL THICK PLAIN CHOCOLATE SQUARE BITTER (مربّعة أوتيل سادة سميك مر)</v>
       </c>
       <c r="C100" t="str">
         <v/>
@@ -7451,10 +7451,10 @@
         <v/>
       </c>
       <c r="G100" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H100" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I100" t="str">
         <v/>
@@ -7463,7 +7463,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K100" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L100" t="str">
         <v/>
@@ -7507,7 +7507,7 @@
         <v>CH1052</v>
       </c>
       <c r="B101" t="str">
-        <v>PATERNED MASHED SWEET</v>
+        <v>PATERNED MASHED SWEET (مقرقطة كسر حلو)</v>
       </c>
       <c r="C101" t="str">
         <v/>
@@ -7522,10 +7522,10 @@
         <v/>
       </c>
       <c r="G101" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -   مكسرات مشكلة)</v>
       </c>
       <c r="H101" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I101" t="str">
         <v/>
@@ -7534,7 +7534,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K101" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L101" t="str">
         <v/>
@@ -7578,7 +7578,7 @@
         <v>CH1053</v>
       </c>
       <c r="B102" t="str">
-        <v>PATERNED MASHED BITTER</v>
+        <v>PATERNED MASHED BITTER (مقرقطة كسر مر)</v>
       </c>
       <c r="C102" t="str">
         <v/>
@@ -7593,10 +7593,10 @@
         <v/>
       </c>
       <c r="G102" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -   مكسرات مشكلة)</v>
       </c>
       <c r="H102" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I102" t="str">
         <v/>
@@ -7605,7 +7605,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K102" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L102" t="str">
         <v/>
@@ -7649,7 +7649,7 @@
         <v>CH1054</v>
       </c>
       <c r="B103" t="str">
-        <v>MASHED THICK SQUARE</v>
+        <v>MASHED THICK SQUARE (مربّعة كسر سميكة)</v>
       </c>
       <c r="C103" t="str">
         <v/>
@@ -7664,10 +7664,10 @@
         <v/>
       </c>
       <c r="G103" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -   مكسرات مشكلة)</v>
       </c>
       <c r="H103" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I103" t="str">
         <v/>
@@ -7676,7 +7676,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K103" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L103" t="str">
         <v/>
@@ -7720,7 +7720,7 @@
         <v>CH1055</v>
       </c>
       <c r="B104" t="str">
-        <v>SIMA CRUNCH FINGERS</v>
+        <v>SIMA CRUNCH FINGERS (أصابع سيما كرانش)</v>
       </c>
       <c r="C104" t="str">
         <v/>
@@ -7735,10 +7735,10 @@
         <v/>
       </c>
       <c r="G104" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - RICE CRISPY</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - RICE CRISPY (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H104" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I104" t="str">
         <v/>
@@ -7747,7 +7747,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K104" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L104" t="str">
         <v/>
@@ -7791,7 +7791,7 @@
         <v>CH1056</v>
       </c>
       <c r="B105" t="str">
-        <v>FINGER MOLD MASHED CROQUIN</v>
+        <v>FINGER MOLD MASHED CROQUIN (قالب الأصبع كسر كروكان)</v>
       </c>
       <c r="C105" t="str">
         <v/>
@@ -7806,10 +7806,10 @@
         <v/>
       </c>
       <c r="G105" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -   بندق)</v>
       </c>
       <c r="H105" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I105" t="str">
         <v/>
@@ -7818,7 +7818,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K105" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L105" t="str">
         <v/>
@@ -7862,7 +7862,7 @@
         <v>CH1057</v>
       </c>
       <c r="B106" t="str">
-        <v>THREE PIECES CRUNCH</v>
+        <v>THREE PIECES CRUNCH (ثلاث قطع كرانش)</v>
       </c>
       <c r="C106" t="str">
         <v/>
@@ -7877,10 +7877,10 @@
         <v/>
       </c>
       <c r="G106" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - RICE CRISPY</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - RICE CRISPY (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H106" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I106" t="str">
         <v/>
@@ -7889,7 +7889,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K106" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L106" t="str">
         <v/>
@@ -7933,7 +7933,7 @@
         <v>CH1058</v>
       </c>
       <c r="B107" t="str">
-        <v>CIGAR BONBONE</v>
+        <v>CIGAR BONBONE (سيكار بونبون)</v>
       </c>
       <c r="C107" t="str">
         <v/>
@@ -7948,10 +7948,10 @@
         <v/>
       </c>
       <c r="G107" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H107" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I107" t="str">
         <v/>
@@ -7960,7 +7960,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K107" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L107" t="str">
         <v/>
@@ -8004,7 +8004,7 @@
         <v>CH1059</v>
       </c>
       <c r="B108" t="str">
-        <v>THIN SQUARE 7X7 PLAIN</v>
+        <v>THIN SQUARE 7X7 PLAIN (مربّعة رقيقة 7×7 سادة)</v>
       </c>
       <c r="C108" t="str">
         <v/>
@@ -8019,10 +8019,10 @@
         <v/>
       </c>
       <c r="G108" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H108" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I108" t="str">
         <v/>
@@ -8031,7 +8031,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K108" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L108" t="str">
         <v/>
@@ -8075,7 +8075,7 @@
         <v>CH1060</v>
       </c>
       <c r="B109" t="str">
-        <v>TILTED TARBOOSH MASHED</v>
+        <v>TILTED TARBOOSH MASHED (طربوش مايل كسر)</v>
       </c>
       <c r="C109" t="str">
         <v/>
@@ -8090,10 +8090,10 @@
         <v/>
       </c>
       <c r="G109" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS - HAZEL NUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS - HAZEL NUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  مكسرات مشكلة - زيت البندق)</v>
       </c>
       <c r="H109" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I109" t="str">
         <v/>
@@ -8102,7 +8102,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K109" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L109" t="str">
         <v/>
@@ -8146,7 +8146,7 @@
         <v>CH1061</v>
       </c>
       <c r="B110" t="str">
-        <v>PYRAMID MASHED SMALL</v>
+        <v>PYRAMID MASHED SMALL (هرم كسر صغير)</v>
       </c>
       <c r="C110" t="str">
         <v/>
@@ -8161,10 +8161,10 @@
         <v/>
       </c>
       <c r="G110" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS - HAZEL NUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS - HAZEL NUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  مكسرات مشكلة - زيت البندق)</v>
       </c>
       <c r="H110" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I110" t="str">
         <v/>
@@ -8173,7 +8173,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K110" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L110" t="str">
         <v/>
@@ -8217,7 +8217,7 @@
         <v>CH1062</v>
       </c>
       <c r="B111" t="str">
-        <v>PYRAMID BIG</v>
+        <v>PYRAMID BIG (هرم كبير)</v>
       </c>
       <c r="C111" t="str">
         <v/>
@@ -8232,10 +8232,10 @@
         <v/>
       </c>
       <c r="G111" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS - HAZEL NUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS - HAZEL NUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  مكسرات مشكلة - زيت البندق)</v>
       </c>
       <c r="H111" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I111" t="str">
         <v/>
@@ -8244,7 +8244,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K111" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L111" t="str">
         <v/>
@@ -8288,7 +8288,7 @@
         <v>CH1064</v>
       </c>
       <c r="B112" t="str">
-        <v>CLOCK MOLD</v>
+        <v>CLOCK MOLD (قالب الساعة)</v>
       </c>
       <c r="C112" t="str">
         <v/>
@@ -8303,10 +8303,10 @@
         <v/>
       </c>
       <c r="G112" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -)</v>
       </c>
       <c r="H112" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I112" t="str">
         <v/>
@@ -8315,7 +8315,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K112" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L112" t="str">
         <v/>
@@ -8359,7 +8359,7 @@
         <v>CH1065</v>
       </c>
       <c r="B113" t="str">
-        <v>TANGERINE FINGERS DIPPED IN CHOCOLATE</v>
+        <v>TANGERINE FINGERS DIPPED IN CHOCOLATE (أصابع بصفير تغطيس شوكولا)</v>
       </c>
       <c r="C113" t="str">
         <v/>
@@ -8374,10 +8374,10 @@
         <v/>
       </c>
       <c r="G113" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA -GLUCOSE -TANGERINE - CITRIC ACID</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA -GLUCOSE -TANGERINE - CITRIC ACID (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  غلوكوز - افندي - حمض الليمون)</v>
       </c>
       <c r="H113" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I113" t="str">
         <v/>
@@ -8386,7 +8386,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K113" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L113" t="str">
         <v/>
@@ -8430,7 +8430,7 @@
         <v>CH1066</v>
       </c>
       <c r="B114" t="str">
-        <v>SQUARE BELL MASHED</v>
+        <v>SQUARE BELL MASHED (مربّعة كسر جرس)</v>
       </c>
       <c r="C114" t="str">
         <v/>
@@ -8445,10 +8445,10 @@
         <v/>
       </c>
       <c r="G114" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  مكسرات مشكلة)</v>
       </c>
       <c r="H114" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I114" t="str">
         <v/>
@@ -8457,7 +8457,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K114" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L114" t="str">
         <v/>
@@ -8501,7 +8501,7 @@
         <v>CH1067</v>
       </c>
       <c r="B115" t="str">
-        <v>SQUARE CHANTELLIET MASHED</v>
+        <v>SQUARE CHANTELLIET MASHED (مربّعة شانتيليه كسر)</v>
       </c>
       <c r="C115" t="str">
         <v/>
@@ -8516,10 +8516,10 @@
         <v/>
       </c>
       <c r="G115" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا -  مكسرات مشكلة)</v>
       </c>
       <c r="H115" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I115" t="str">
         <v/>
@@ -8528,7 +8528,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K115" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L115" t="str">
         <v/>
@@ -8572,7 +8572,7 @@
         <v>CH1068</v>
       </c>
       <c r="B116" t="str">
-        <v>CHOCOLATE BAKLAWA</v>
+        <v>CHOCOLATE BAKLAWA (شوكولا بقلاوة حلو)</v>
       </c>
       <c r="C116" t="str">
         <v/>
@@ -8587,10 +8587,10 @@
         <v/>
       </c>
       <c r="G116" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - FLOUR - STARCH - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - FLOUR - STARCH - MIXED NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - طحين - مكسرات مشكلة - نشاء)</v>
       </c>
       <c r="H116" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I116" t="str">
         <v/>
@@ -8599,7 +8599,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K116" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L116" t="str">
         <v/>
@@ -8643,7 +8643,7 @@
         <v>CH1068</v>
       </c>
       <c r="B117" t="str">
-        <v>CHOCOLATE BAKLAWA  DARK</v>
+        <v>CHOCOLATE BAKLAWA  DARK (شوكولا بقلاوة مر)</v>
       </c>
       <c r="C117" t="str">
         <v/>
@@ -8658,10 +8658,10 @@
         <v/>
       </c>
       <c r="G117" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - FLOUR - STARCH - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - FLOUR - STARCH - MIXED NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - طحين - مكسرات مشكلة - نشاء)</v>
       </c>
       <c r="H117" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I117" t="str">
         <v/>
@@ -8670,7 +8670,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K117" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L117" t="str">
         <v/>
@@ -8714,7 +8714,7 @@
         <v>CH1069</v>
       </c>
       <c r="B118" t="str">
-        <v>CHOCOLATE BASME</v>
+        <v>CHOCOLATE BASME (شوكولا بصمة)</v>
       </c>
       <c r="C118" t="str">
         <v/>
@@ -8729,10 +8729,10 @@
         <v/>
       </c>
       <c r="G118" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - FLOUR -MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - FLOUR -MIXED NUTS (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - طحين - مكسرات مشكلة)</v>
       </c>
       <c r="H118" t="str">
-        <v/>
+        <v>SUPEER</v>
       </c>
       <c r="I118" t="str">
         <v/>
@@ -8741,7 +8741,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K118" t="str">
-        <v>SUPEER</v>
+        <v/>
       </c>
       <c r="L118" t="str">
         <v/>
@@ -8785,7 +8785,7 @@
         <v>CH1070</v>
       </c>
       <c r="B119" t="str">
-        <v>CHOCOLATE TRUFFLE HAZELLNUT</v>
+        <v>CHOCOLATE TRUFFLE HAZELLNUT (شوكولا تروفل بندق)</v>
       </c>
       <c r="C119" t="str">
         <v/>
@@ -8800,10 +8800,10 @@
         <v/>
       </c>
       <c r="G119" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUT -HAZELNUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - HAZELNUT -HAZELNUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - زيت البندق - بندق)</v>
       </c>
       <c r="H119" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I119" t="str">
         <v/>
@@ -8812,7 +8812,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K119" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L119" t="str">
         <v/>
@@ -8856,7 +8856,7 @@
         <v>CH1071</v>
       </c>
       <c r="B120" t="str">
-        <v>CHOCOLATE TRUFFLE ALMOND</v>
+        <v>CHOCOLATE TRUFFLE ALMOND (شوكولا تروفل لوز)</v>
       </c>
       <c r="C120" t="str">
         <v/>
@@ -8871,10 +8871,10 @@
         <v/>
       </c>
       <c r="G120" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND - HAZELNUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND - HAZELNUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - زيت البندق - لوز)</v>
       </c>
       <c r="H120" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I120" t="str">
         <v/>
@@ -8883,7 +8883,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K120" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L120" t="str">
         <v/>
@@ -8927,7 +8927,7 @@
         <v>CH1072</v>
       </c>
       <c r="B121" t="str">
-        <v>CHOCOLATE TRUFFLE PISTACHIO</v>
+        <v>CHOCOLATE TRUFFLE PISTACHIO (شوكولا تروفل فستق)</v>
       </c>
       <c r="C121" t="str">
         <v/>
@@ -8942,10 +8942,10 @@
         <v/>
       </c>
       <c r="G121" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - PISTACHIO- HAZELNUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - PISTACHIO- HAZELNUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - زيت البندق - فستق حلبي)</v>
       </c>
       <c r="H121" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I121" t="str">
         <v/>
@@ -8954,7 +8954,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K121" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L121" t="str">
         <v/>
@@ -8998,7 +8998,7 @@
         <v>CH1073</v>
       </c>
       <c r="B122" t="str">
-        <v>CHOCOLATE TRUFFLE COCONUT</v>
+        <v>CHOCOLATE TRUFFLE COCONUT (شوكولا تروفل جوز هند)</v>
       </c>
       <c r="C122" t="str">
         <v/>
@@ -9013,10 +9013,10 @@
         <v/>
       </c>
       <c r="G122" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - COCNUT- HAZELNUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - COCNUT- HAZELNUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - زيت البندق - جوز الهند)</v>
       </c>
       <c r="H122" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I122" t="str">
         <v/>
@@ -9025,7 +9025,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K122" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L122" t="str">
         <v/>
@@ -9069,7 +9069,7 @@
         <v>CH1074</v>
       </c>
       <c r="B123" t="str">
-        <v>CHOCOLATE TRUFFLE VERMISCELL</v>
+        <v>CHOCOLATE TRUFFLE VERMISCELL (شوكولا تروفل فارميسيل)</v>
       </c>
       <c r="C123" t="str">
         <v/>
@@ -9084,10 +9084,10 @@
         <v/>
       </c>
       <c r="G123" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA -HAZELNUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA -HAZELNUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - زيت البندق)</v>
       </c>
       <c r="H123" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I123" t="str">
         <v/>
@@ -9096,7 +9096,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K123" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L123" t="str">
         <v/>
@@ -9140,7 +9140,7 @@
         <v>CH1076</v>
       </c>
       <c r="B124" t="str">
-        <v>CHOCOLATE FIYOTIN</v>
+        <v>CHOCOLATE FIYOTIN (شوكولا فيوتين)</v>
       </c>
       <c r="C124" t="str">
         <v/>
@@ -9155,10 +9155,10 @@
         <v/>
       </c>
       <c r="G124" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - DICED WAFER</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - DICED WAFER (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - رقاقات الويفر)</v>
       </c>
       <c r="H124" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I124" t="str">
         <v/>
@@ -9167,7 +9167,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K124" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L124" t="str">
         <v/>
@@ -9211,7 +9211,7 @@
         <v>CH1077</v>
       </c>
       <c r="B125" t="str">
-        <v>COFFEE BEAN MOLD</v>
+        <v>COFFEE BEAN MOLD (قالب البن)</v>
       </c>
       <c r="C125" t="str">
         <v/>
@@ -9226,10 +9226,10 @@
         <v/>
       </c>
       <c r="G125" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - COFFEE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - COFFEE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - قهوة)</v>
       </c>
       <c r="H125" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I125" t="str">
         <v/>
@@ -9238,7 +9238,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K125" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L125" t="str">
         <v/>
@@ -9282,7 +9282,7 @@
         <v>CH1078</v>
       </c>
       <c r="B126" t="str">
-        <v>BOMBE SMALL CARDAMON</v>
+        <v>BOMBE SMALL CARDAMON (بونبيه هال صغير)</v>
       </c>
       <c r="C126" t="str">
         <v/>
@@ -9297,10 +9297,10 @@
         <v/>
       </c>
       <c r="G126" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - CARDAMON</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - CARDAMON (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - هال)</v>
       </c>
       <c r="H126" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I126" t="str">
         <v/>
@@ -9309,7 +9309,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K126" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L126" t="str">
         <v/>
@@ -9353,7 +9353,7 @@
         <v>CH1079</v>
       </c>
       <c r="B127" t="str">
-        <v>TREE LEAF DIET SWEET</v>
+        <v>TREE LEAF DIET SWEET (ورق شجر دايت حلو)</v>
       </c>
       <c r="C127" t="str">
         <v/>
@@ -9368,10 +9368,10 @@
         <v/>
       </c>
       <c r="G127" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو- ليستين - سكر - فانيليا)</v>
       </c>
       <c r="H127" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I127" t="str">
         <v/>
@@ -9380,7 +9380,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K127" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L127" t="str">
         <v/>
@@ -9424,7 +9424,7 @@
         <v>CH1080</v>
       </c>
       <c r="B128" t="str">
-        <v>TREE LEAF DIET BITTER</v>
+        <v>TREE LEAF DIET BITTER (ورق شجر دايت مر)</v>
       </c>
       <c r="C128" t="str">
         <v/>
@@ -9439,10 +9439,10 @@
         <v/>
       </c>
       <c r="G128" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (كاكاو - زبجة الكاكاو - ليستين - فانيليا)</v>
       </c>
       <c r="H128" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I128" t="str">
         <v/>
@@ -9451,7 +9451,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K128" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L128" t="str">
         <v/>
@@ -9495,7 +9495,7 @@
         <v>CH1081</v>
       </c>
       <c r="B129" t="str">
-        <v>HEART BIG</v>
+        <v>HEART BIG (قلب كبير)</v>
       </c>
       <c r="C129" t="str">
         <v/>
@@ -9510,10 +9510,10 @@
         <v/>
       </c>
       <c r="G129" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو زبدة الكاكاو - ليستين - سكر - فانيليا)</v>
       </c>
       <c r="H129" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I129" t="str">
         <v/>
@@ -9522,7 +9522,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K129" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L129" t="str">
         <v/>
@@ -9566,7 +9566,7 @@
         <v>CH1082</v>
       </c>
       <c r="B130" t="str">
-        <v>HEART MEDIUM</v>
+        <v>HEART MEDIUM (قلب وسط)</v>
       </c>
       <c r="C130" t="str">
         <v/>
@@ -9581,10 +9581,10 @@
         <v/>
       </c>
       <c r="G130" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكو - زبدة الكاكاو - ليستين - سكر - فانيليا)</v>
       </c>
       <c r="H130" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I130" t="str">
         <v/>
@@ -9593,7 +9593,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K130" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L130" t="str">
         <v/>
@@ -9637,7 +9637,7 @@
         <v>CH1083</v>
       </c>
       <c r="B131" t="str">
-        <v>HEART SMALL</v>
+        <v>HEART SMALL (قلب صغير)</v>
       </c>
       <c r="C131" t="str">
         <v/>
@@ -9652,10 +9652,10 @@
         <v/>
       </c>
       <c r="G131" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكو - ليستين - سكر فانيليا)</v>
       </c>
       <c r="H131" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I131" t="str">
         <v/>
@@ -9664,7 +9664,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K131" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L131" t="str">
         <v/>
@@ -9708,7 +9708,7 @@
         <v>CH1088</v>
       </c>
       <c r="B132" t="str">
-        <v>CHOCOLATE MENN W SALWA</v>
+        <v>CHOCOLATE MENN W SALWA (شوكولا منّ و سلوى)</v>
       </c>
       <c r="C132" t="str">
         <v/>
@@ -9723,10 +9723,10 @@
         <v/>
       </c>
       <c r="G132" t="str">
-        <v>GLUCOSE - SUGAR - EGG WHITE - MIXED NUTS - NATURAL FLAVOURS - NATURAL PLANT - MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA -</v>
+        <v>GLUCOSE - SUGAR - EGG WHITE - MIXED NUTS - NATURAL FLAVOURS - NATURAL PLANT - MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - (علوكوز - سكر - زلال البيض - مكسرات مشكلة - نكهات طبيعية -  نبات طبيعي - حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا)</v>
       </c>
       <c r="H132" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I132" t="str">
         <v/>
@@ -9735,7 +9735,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K132" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L132" t="str">
         <v/>
@@ -9779,7 +9779,7 @@
         <v>CH1090</v>
       </c>
       <c r="B133" t="str">
-        <v>SQUARE WAFER CARAMEL</v>
+        <v>SQUARE WAFER CARAMEL (مربّعة ويفر كراميل)</v>
       </c>
       <c r="C133" t="str">
         <v/>
@@ -9794,10 +9794,10 @@
         <v/>
       </c>
       <c r="G133" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER - COW BUTTER- GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER - COW BUTTER- GLUCOSE (حليب - كاكاو زبدة الكاكاو - ليستين - سكر - فانيليا - وايفر - زبدة البقر - غلوكوز)</v>
       </c>
       <c r="H133" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I133" t="str">
         <v/>
@@ -9806,7 +9806,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K133" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L133" t="str">
         <v/>
@@ -9850,7 +9850,7 @@
         <v>CH1091</v>
       </c>
       <c r="B134" t="str">
-        <v>PIANO DOIT MASHED</v>
+        <v>PIANO DOIT MASHED (بيانو دوا كسر)</v>
       </c>
       <c r="C134" t="str">
         <v/>
@@ -9865,10 +9865,10 @@
         <v/>
       </c>
       <c r="G134" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - MIXED NUTS (حليب - كاكاو زبدة الكاكاو - ليستين - سكر - فانيليا - مكسرات مشكلة)</v>
       </c>
       <c r="H134" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I134" t="str">
         <v/>
@@ -9877,7 +9877,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K134" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L134" t="str">
         <v/>
@@ -9921,7 +9921,7 @@
         <v>CH1092</v>
       </c>
       <c r="B135" t="str">
-        <v>BALL PISTACHIO PASTERY SWEET</v>
+        <v>BALL PISTACHIO PASTERY SWEET (بوول عجينة الفستق حلو)</v>
       </c>
       <c r="C135" t="str">
         <v/>
@@ -9936,10 +9936,10 @@
         <v/>
       </c>
       <c r="G135" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - PISTACHIO - GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - PISTACHIO - GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - فستق حلبي - غلوكوز)</v>
       </c>
       <c r="H135" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I135" t="str">
         <v/>
@@ -9948,7 +9948,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K135" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L135" t="str">
         <v/>
@@ -9992,7 +9992,7 @@
         <v>CH1094</v>
       </c>
       <c r="B136" t="str">
-        <v>ROCHE ALMOND MOLD SWEET</v>
+        <v>ROCHE ALMOND MOLD SWEET (روشّيه لوز صب حلو)</v>
       </c>
       <c r="C136" t="str">
         <v/>
@@ -10007,10 +10007,10 @@
         <v/>
       </c>
       <c r="G136" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - لوز)</v>
       </c>
       <c r="H136" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I136" t="str">
         <v/>
@@ -10019,7 +10019,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K136" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L136" t="str">
         <v/>
@@ -10063,7 +10063,7 @@
         <v>CH1095</v>
       </c>
       <c r="B137" t="str">
-        <v>ROCHE ALMOND MOLD BITTER</v>
+        <v>ROCHE ALMOND MOLD BITTER (روشّيه لوز صب مر)</v>
       </c>
       <c r="C137" t="str">
         <v/>
@@ -10078,10 +10078,10 @@
         <v/>
       </c>
       <c r="G137" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - ALMOND (كاكاو - زبدة الكاكاو - ليستين - فانيليا - لوز)</v>
       </c>
       <c r="H137" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I137" t="str">
         <v/>
@@ -10090,7 +10090,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K137" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L137" t="str">
         <v/>
@@ -10134,7 +10134,7 @@
         <v>CH1096</v>
       </c>
       <c r="B138" t="str">
-        <v>CHERRY MOLD</v>
+        <v>CHERRY MOLD (قالب الكرز)</v>
       </c>
       <c r="C138" t="str">
         <v/>
@@ -10149,10 +10149,10 @@
         <v/>
       </c>
       <c r="G138" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - CHERRIES- GLUCOSE</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - CHERRIES- GLUCOSE (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا - كرز - غلوكوز)</v>
       </c>
       <c r="H138" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I138" t="str">
         <v/>
@@ -10161,7 +10161,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K138" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L138" t="str">
         <v/>
@@ -10205,7 +10205,7 @@
         <v>CH1098</v>
       </c>
       <c r="B139" t="str">
-        <v>WAFER CIGAR CHOCOLATE</v>
+        <v>WAFER CIGAR CHOCOLATE (ويفر سيكار شوكولا)</v>
       </c>
       <c r="C139" t="str">
         <v/>
@@ -10220,10 +10220,10 @@
         <v/>
       </c>
       <c r="G139" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER- HAZELNUT OIL</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA - WAFER- HAZELNUT OIL (حليب - كاكاو - زبدة الكاكاو - ليستين - فانيليا - سكر - وايفر - زيت جوز الهند)</v>
       </c>
       <c r="H139" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I139" t="str">
         <v/>
@@ -10232,7 +10232,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K139" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L139" t="str">
         <v/>
@@ -10276,7 +10276,7 @@
         <v>CH1099</v>
       </c>
       <c r="B140" t="str">
-        <v>HOTEL PLAIN THIN SQUARE SWEET</v>
+        <v>HOTEL PLAIN THIN SQUARE SWEET (مربّعة أوتيل سادة رفيع حلو)</v>
       </c>
       <c r="C140" t="str">
         <v/>
@@ -10291,10 +10291,10 @@
         <v/>
       </c>
       <c r="G140" t="str">
-        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>MILK - COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (حليب - كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا)</v>
       </c>
       <c r="H140" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I140" t="str">
         <v/>
@@ -10303,7 +10303,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K140" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L140" t="str">
         <v/>
@@ -10347,7 +10347,7 @@
         <v>CH1100</v>
       </c>
       <c r="B141" t="str">
-        <v>HOTEL PLAIN THIN SQUARE BITTER</v>
+        <v>HOTEL PLAIN THIN SQUARE BITTER (مربّعة أوتيل سادة رفيع مر)</v>
       </c>
       <c r="C141" t="str">
         <v/>
@@ -10362,10 +10362,10 @@
         <v/>
       </c>
       <c r="G141" t="str">
-        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA</v>
+        <v>COCOA - COCOA BUTTER - LISETIN - SUGAR - VANILLA (كاكاو - زبدة الكاكاو - ليستين - سكر - فانيليا)</v>
       </c>
       <c r="H141" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I141" t="str">
         <v/>
@@ -10374,7 +10374,7 @@
         <v>Chocolate</v>
       </c>
       <c r="K141" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L141" t="str">
         <v/>
@@ -10415,7 +10415,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v/>
+        <v>DF1000</v>
+      </c>
+      <c r="B142" t="str">
+        <v>APRICOT FILLED WITH PISTACHIOS (زهرة المشمش مع فستق)</v>
       </c>
       <c r="C142" t="str">
         <v/>
@@ -10430,7 +10433,7 @@
         <v/>
       </c>
       <c r="G142" t="str">
-        <v>فستق حلبي - سكر</v>
+        <v>APRICOT NATURAL FRUIT - PISTACHIO - SUGAR - GLUCOSE - GILATINE COW - CITRIC ACID                                        . (فاكهة المشمش الطبيعية - فستق حلبي - سكر - غلوكوز - جيلاتين بقري - حمض  الليمون)</v>
       </c>
       <c r="H142" t="str">
         <v/>
@@ -10439,10 +10442,10 @@
         <v/>
       </c>
       <c r="J142" t="str">
-        <v>Armoush</v>
+        <v>Dried Fruits</v>
       </c>
       <c r="K142" t="str">
-        <v xml:space="preserve">EXTRA                       </v>
+        <v/>
       </c>
       <c r="L142" t="str">
         <v/>
@@ -10483,7 +10486,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v/>
+        <v>DF1001</v>
+      </c>
+      <c r="B143" t="str">
+        <v>CACTUS (صبّير)</v>
       </c>
       <c r="C143" t="str">
         <v/>
@@ -10498,7 +10504,7 @@
         <v/>
       </c>
       <c r="G143" t="str">
-        <v>فستق حلبي - سكر</v>
+        <v>CACTUS NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID (فاكهة الصبّير الطبيعية - سكر - غلوكوز - جيلاتين بقري  - حمض الليمون)</v>
       </c>
       <c r="H143" t="str">
         <v/>
@@ -10507,10 +10513,10 @@
         <v/>
       </c>
       <c r="J143" t="str">
-        <v>Armoush</v>
+        <v>Dried Fruits</v>
       </c>
       <c r="K143" t="str">
-        <v xml:space="preserve">EXTRA                        </v>
+        <v/>
       </c>
       <c r="L143" t="str">
         <v/>
@@ -10551,7 +10557,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v/>
+        <v>DF1002</v>
+      </c>
+      <c r="B144" t="str">
+        <v>APRICOT (مشمش)</v>
       </c>
       <c r="C144" t="str">
         <v/>
@@ -10566,7 +10575,7 @@
         <v/>
       </c>
       <c r="G144" t="str">
-        <v>فستق حلبي - سكر</v>
+        <v>APRICOT NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                                  . (.                                                فاكهة المشمش الطبيعية - سكر - غلوكوز - جيلاتين بقري - حمض الليمون)</v>
       </c>
       <c r="H144" t="str">
         <v/>
@@ -10575,10 +10584,10 @@
         <v/>
       </c>
       <c r="J144" t="str">
-        <v>Armoush</v>
+        <v>Dried Fruits</v>
       </c>
       <c r="K144" t="str">
-        <v xml:space="preserve">EXTRA                         </v>
+        <v/>
       </c>
       <c r="L144" t="str">
         <v/>
@@ -10619,7 +10628,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v/>
+        <v>DF1003</v>
+      </c>
+      <c r="B145" t="str">
+        <v>APPLE (تفّاح)</v>
       </c>
       <c r="C145" t="str">
         <v/>
@@ -10634,7 +10646,7 @@
         <v/>
       </c>
       <c r="G145" t="str">
-        <v>فستق حلبي - سكر  - ورد مجفف</v>
+        <v>APPLE NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                             . (.                                                              فاكهة التفّاح الطبيعية - سكر- غلوكوز - جيلاتين بقري - حمض الليمون)</v>
       </c>
       <c r="H145" t="str">
         <v/>
@@ -10643,10 +10655,10 @@
         <v/>
       </c>
       <c r="J145" t="str">
-        <v>Armoush</v>
+        <v>Dried Fruits</v>
       </c>
       <c r="K145" t="str">
-        <v xml:space="preserve">EXTRA                         </v>
+        <v/>
       </c>
       <c r="L145" t="str">
         <v/>
@@ -10687,10 +10699,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v/>
+        <v>DF1004</v>
       </c>
       <c r="B146" t="str">
-        <v>APRICOT FILLED WITH PISTACHIOS</v>
+        <v>FIGS (تين)</v>
       </c>
       <c r="C146" t="str">
         <v/>
@@ -10703,6 +10715,9 @@
       </c>
       <c r="F146" t="str">
         <v/>
+      </c>
+      <c r="G146" t="str">
+        <v>FIGS NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                                         . (.                                                         فاكهة التين الطبيعية - سكر - غلوكوز - جيلاتين بقري - حمض الليمون)</v>
       </c>
       <c r="H146" t="str">
         <v/>
@@ -10755,10 +10770,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v/>
+        <v>DF1005</v>
       </c>
       <c r="B147" t="str">
-        <v>CACTUS</v>
+        <v>EGGPLANT (BLACK) (باذنجان أسود)</v>
       </c>
       <c r="C147" t="str">
         <v/>
@@ -10771,6 +10786,9 @@
       </c>
       <c r="F147" t="str">
         <v/>
+      </c>
+      <c r="G147" t="str">
+        <v>EGGPLANT NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                                                         . (.                        فاكهة الباذنجان أسود الطبيعية - سكر - غلوكوز - جيلاتين بقري - حمض الليمون)</v>
       </c>
       <c r="H147" t="str">
         <v/>
@@ -10823,10 +10841,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v/>
+        <v>DF1006</v>
       </c>
       <c r="B148" t="str">
-        <v>APRICOT</v>
+        <v>PLUMS (خوخ)</v>
       </c>
       <c r="C148" t="str">
         <v/>
@@ -10839,6 +10857,9 @@
       </c>
       <c r="F148" t="str">
         <v/>
+      </c>
+      <c r="G148" t="str">
+        <v>PLUMS NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                            . (.                                                       فاكهة الخوخ الطبيعية - سكر - غلوكوز -  جيلاتين بقري - حمض الليمون)</v>
       </c>
       <c r="H148" t="str">
         <v/>
@@ -10891,10 +10912,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v/>
+        <v>DF1007</v>
       </c>
       <c r="B149" t="str">
-        <v>APPLE</v>
+        <v>PEARS (إجاص)</v>
       </c>
       <c r="C149" t="str">
         <v/>
@@ -10907,6 +10928,9 @@
       </c>
       <c r="F149" t="str">
         <v/>
+      </c>
+      <c r="G149" t="str">
+        <v>PEARS NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                             . (.                                                     فاكهة الإجاص الطبيعية - سكر - غلوكوز - جيلاتين بقري - حمض الليمون)</v>
       </c>
       <c r="H149" t="str">
         <v/>
@@ -10959,10 +10983,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v/>
+        <v>DF1008</v>
       </c>
       <c r="B150" t="str">
-        <v>FIGS</v>
+        <v>EGGPLANT (GREEN) (باذنجان أخضر)</v>
       </c>
       <c r="C150" t="str">
         <v/>
@@ -10975,6 +10999,9 @@
       </c>
       <c r="F150" t="str">
         <v/>
+      </c>
+      <c r="G150" t="str">
+        <v>EGGPLANT NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                             . (.                                                    فاكهة الباذنجان أخضر الطبيعية - سكر - غلوكوز - جيلاتين بقري - حمض الليمون)</v>
       </c>
       <c r="H150" t="str">
         <v/>
@@ -11027,10 +11054,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v/>
+        <v>DF1009</v>
       </c>
       <c r="B151" t="str">
-        <v>EGGPLANT (BLACK)</v>
+        <v>WALNUT (جوز)</v>
       </c>
       <c r="C151" t="str">
         <v/>
@@ -11044,8 +11071,11 @@
       <c r="F151" t="str">
         <v/>
       </c>
+      <c r="G151" t="str">
+        <v>WALNUT NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                             . (.                                                              فاكهة الجوز الطبيعية - سكر - غلوكوز - جيلاتين بقري - حمض الليمون)</v>
+      </c>
       <c r="H151" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I151" t="str">
         <v/>
@@ -11095,10 +11125,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v/>
+        <v>DF1010</v>
       </c>
       <c r="B152" t="str">
-        <v>PLUMS</v>
+        <v>TANGERINE (صفير)</v>
       </c>
       <c r="C152" t="str">
         <v/>
@@ -11111,6 +11141,9 @@
       </c>
       <c r="F152" t="str">
         <v/>
+      </c>
+      <c r="G152" t="str">
+        <v>TANGERINE NATURAL FRUIT - SUGAR - GLUCOSE - GILATINE - CITRIC ACID                                                             . (.                                                    فاكهة البوصفير الطبيعية - سكر - غلوكوز - جيلاتين بقري - حمض الليمون)</v>
       </c>
       <c r="H152" t="str">
         <v/>
@@ -11163,10 +11196,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v/>
+        <v>MZ1000 E</v>
       </c>
       <c r="B153" t="str">
-        <v>PEARS</v>
+        <v>MARZIPAN COCQCINEL (مرصبان دعسوقة)</v>
       </c>
       <c r="C153" t="str">
         <v/>
@@ -11180,14 +11213,17 @@
       <c r="F153" t="str">
         <v/>
       </c>
+      <c r="G153" t="str">
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+      </c>
       <c r="H153" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I153" t="str">
         <v/>
       </c>
       <c r="J153" t="str">
-        <v>Dried Fruits</v>
+        <v>Marzipan</v>
       </c>
       <c r="K153" t="str">
         <v/>
@@ -11198,8 +11234,8 @@
       <c r="M153" t="str">
         <v/>
       </c>
-      <c r="N153" t="str">
-        <v/>
+      <c r="N153">
+        <v>25</v>
       </c>
       <c r="O153" t="str">
         <v/>
@@ -11231,10 +11267,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v/>
+        <v>MZ1001 E</v>
       </c>
       <c r="B154" t="str">
-        <v>EGGPLANT (GREEN)</v>
+        <v>MARZIPAN FIG (مرصبان تين)</v>
       </c>
       <c r="C154" t="str">
         <v/>
@@ -11248,14 +11284,17 @@
       <c r="F154" t="str">
         <v/>
       </c>
+      <c r="G154" t="str">
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+      </c>
       <c r="H154" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I154" t="str">
         <v/>
       </c>
       <c r="J154" t="str">
-        <v>Dried Fruits</v>
+        <v>Marzipan</v>
       </c>
       <c r="K154" t="str">
         <v/>
@@ -11266,8 +11305,8 @@
       <c r="M154" t="str">
         <v/>
       </c>
-      <c r="N154" t="str">
-        <v/>
+      <c r="N154">
+        <v>25</v>
       </c>
       <c r="O154" t="str">
         <v/>
@@ -11299,10 +11338,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v/>
+        <v>MZ1002 E</v>
       </c>
       <c r="B155" t="str">
-        <v>WALNUT</v>
+        <v>MARZIPAN BANANA (مرصبان موز)</v>
       </c>
       <c r="C155" t="str">
         <v/>
@@ -11316,17 +11355,20 @@
       <c r="F155" t="str">
         <v/>
       </c>
+      <c r="G155" t="str">
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+      </c>
       <c r="H155" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I155" t="str">
         <v/>
       </c>
       <c r="J155" t="str">
-        <v>Dried Fruits</v>
+        <v>Marzipan</v>
       </c>
       <c r="K155" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L155" t="str">
         <v/>
@@ -11334,8 +11376,8 @@
       <c r="M155" t="str">
         <v/>
       </c>
-      <c r="N155" t="str">
-        <v/>
+      <c r="N155">
+        <v>25</v>
       </c>
       <c r="O155" t="str">
         <v/>
@@ -11367,10 +11409,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v/>
+        <v>MZ1003 E</v>
       </c>
       <c r="B156" t="str">
-        <v>TANGERINE</v>
+        <v>MARZIPAN TOMATO (مرصبان افندي)</v>
       </c>
       <c r="C156" t="str">
         <v/>
@@ -11384,14 +11426,17 @@
       <c r="F156" t="str">
         <v/>
       </c>
+      <c r="G156" t="str">
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+      </c>
       <c r="H156" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I156" t="str">
         <v/>
       </c>
       <c r="J156" t="str">
-        <v>Dried Fruits</v>
+        <v>Marzipan</v>
       </c>
       <c r="K156" t="str">
         <v/>
@@ -11402,8 +11447,8 @@
       <c r="M156" t="str">
         <v/>
       </c>
-      <c r="N156" t="str">
-        <v/>
+      <c r="N156">
+        <v>25</v>
       </c>
       <c r="O156" t="str">
         <v/>
@@ -11435,7 +11480,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v/>
+        <v>MZ1004 E</v>
+      </c>
+      <c r="B157" t="str">
+        <v>MARZIPAN (مرصبان جنارك)</v>
       </c>
       <c r="C157" t="str">
         <v/>
@@ -11450,28 +11498,28 @@
         <v/>
       </c>
       <c r="G157" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة - ثمرة التين الطبيعي - سمسم</v>
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
       </c>
       <c r="H157" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I157" t="str">
         <v/>
       </c>
       <c r="J157" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K157" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L157" t="str">
         <v/>
       </c>
-      <c r="M157">
-        <v>12.5</v>
+      <c r="M157" t="str">
+        <v/>
       </c>
       <c r="N157">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O157" t="str">
         <v/>
@@ -11503,7 +11551,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v/>
+        <v>MZ1005 E</v>
+      </c>
+      <c r="B158" t="str">
+        <v>MARZIPAN (مرصبان أكيدنيا)</v>
       </c>
       <c r="C158" t="str">
         <v/>
@@ -11518,28 +11569,28 @@
         <v/>
       </c>
       <c r="G158" t="str">
-        <v>سكر - غلوكوز - مشمش - حمض الليمون</v>
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
       </c>
       <c r="H158" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I158" t="str">
         <v/>
       </c>
       <c r="J158" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K158" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L158" t="str">
         <v/>
       </c>
-      <c r="M158">
-        <v>12</v>
+      <c r="M158" t="str">
+        <v/>
       </c>
       <c r="N158">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O158" t="str">
         <v/>
@@ -11571,7 +11622,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v/>
+        <v>MZ1006 E</v>
+      </c>
+      <c r="B159" t="str">
+        <v>MARZIPAN STRAWBERRY (مرصبان فريز)</v>
       </c>
       <c r="C159" t="str">
         <v/>
@@ -11586,28 +11640,28 @@
         <v/>
       </c>
       <c r="G159" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
       </c>
       <c r="H159" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I159" t="str">
         <v/>
       </c>
       <c r="J159" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K159" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L159" t="str">
         <v/>
       </c>
-      <c r="M159">
-        <v>12.5</v>
+      <c r="M159" t="str">
+        <v/>
       </c>
       <c r="N159">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O159" t="str">
         <v/>
@@ -11625,7 +11679,7 @@
         <v/>
       </c>
       <c r="T159" t="str">
-        <v>3.5x1.5x38</v>
+        <v/>
       </c>
       <c r="U159" t="str">
         <v/>
@@ -11639,7 +11693,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v/>
+        <v>MZ1007 E</v>
+      </c>
+      <c r="B160" t="str">
+        <v>MARZIPAN PEAR (مرصبان إجاص)</v>
       </c>
       <c r="C160" t="str">
         <v/>
@@ -11654,28 +11711,28 @@
         <v/>
       </c>
       <c r="G160" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -  زلال البيض - سمسم - فانيلا</v>
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
       </c>
       <c r="H160" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I160" t="str">
         <v/>
       </c>
       <c r="J160" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K160" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L160" t="str">
         <v/>
       </c>
-      <c r="M160">
-        <v>12.5</v>
+      <c r="M160" t="str">
+        <v/>
       </c>
       <c r="N160">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O160" t="str">
         <v/>
@@ -11707,7 +11764,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v/>
+        <v>MZ1008 E</v>
+      </c>
+      <c r="B161" t="str">
+        <v>MARZIPAN DATES (مرصبان بلح)</v>
       </c>
       <c r="C161" t="str">
         <v/>
@@ -11722,28 +11782,28 @@
         <v/>
       </c>
       <c r="G161" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة - زلال البيض جوز هند -فانيلا</v>
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
       </c>
       <c r="H161" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I161" t="str">
         <v/>
       </c>
       <c r="J161" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K161" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L161" t="str">
         <v/>
       </c>
-      <c r="M161">
-        <v>13.5</v>
+      <c r="M161" t="str">
+        <v/>
       </c>
       <c r="N161">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O161" t="str">
         <v/>
@@ -11775,7 +11835,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v/>
+        <v>MZ1009 E</v>
+      </c>
+      <c r="B162" t="str">
+        <v>MARZIPAN EGGPLANT (مرصبان باذنجان)</v>
       </c>
       <c r="C162" t="str">
         <v/>
@@ -11790,28 +11853,28 @@
         <v/>
       </c>
       <c r="G162" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
       </c>
       <c r="H162" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I162" t="str">
         <v/>
       </c>
       <c r="J162" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K162" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L162" t="str">
         <v/>
       </c>
-      <c r="M162">
-        <v>13</v>
+      <c r="M162" t="str">
+        <v/>
       </c>
       <c r="N162">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O162" t="str">
         <v/>
@@ -11843,7 +11906,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v/>
+        <v>MZ1010 E</v>
+      </c>
+      <c r="B163" t="str">
+        <v>MARZIPAN  EYE OF DEER (مرصبان عيب الغزال)</v>
       </c>
       <c r="C163" t="str">
         <v/>
@@ -11858,28 +11924,28 @@
         <v/>
       </c>
       <c r="G163" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - ورد الطبيعي</v>
+        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي -)</v>
       </c>
       <c r="H163" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I163" t="str">
         <v/>
       </c>
       <c r="J163" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K163" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L163" t="str">
         <v/>
       </c>
-      <c r="M163">
-        <v>13</v>
+      <c r="M163" t="str">
+        <v/>
       </c>
       <c r="N163">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O163" t="str">
         <v/>
@@ -11897,7 +11963,7 @@
         <v/>
       </c>
       <c r="T163" t="str">
-        <v/>
+        <v>4x2.75x38</v>
       </c>
       <c r="U163" t="str">
         <v/>
@@ -11911,7 +11977,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v/>
+        <v>MZ1011 SP</v>
+      </c>
+      <c r="B164" t="str">
+        <v>MARZIPAN KAAK (مرصبان كعكة)</v>
       </c>
       <c r="C164" t="str">
         <v/>
@@ -11926,28 +11995,28 @@
         <v/>
       </c>
       <c r="G164" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO - (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي -)</v>
       </c>
       <c r="H164" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I164" t="str">
         <v/>
       </c>
       <c r="J164" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K164" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L164" t="str">
         <v/>
       </c>
-      <c r="M164">
-        <v>12.5</v>
+      <c r="M164" t="str">
+        <v/>
       </c>
       <c r="N164">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O164" t="str">
         <v/>
@@ -11979,7 +12048,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v/>
+        <v>MZ1012 SP</v>
+      </c>
+      <c r="B165" t="str">
+        <v>MARZIPAN DAMA APRICOT (مرصبان داما مشمش)</v>
       </c>
       <c r="C165" t="str">
         <v/>
@@ -11994,28 +12066,28 @@
         <v/>
       </c>
       <c r="G165" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO  APRICOT - CITRIC ACID. (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي - مشمش - حمض الليمون)</v>
       </c>
       <c r="H165" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I165" t="str">
         <v/>
       </c>
       <c r="J165" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K165" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L165" t="str">
         <v/>
       </c>
-      <c r="M165">
-        <v>14</v>
+      <c r="M165" t="str">
+        <v/>
       </c>
       <c r="N165">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O165" t="str">
         <v/>
@@ -12047,7 +12119,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v/>
+        <v>MZ1013 SP</v>
+      </c>
+      <c r="B166" t="str">
+        <v>MARZIPAN FLOWER HREESE (مرصبان ورد هريسة)</v>
       </c>
       <c r="C166" t="str">
         <v/>
@@ -12062,28 +12137,28 @@
         <v/>
       </c>
       <c r="G166" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي -)</v>
       </c>
       <c r="H166" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I166" t="str">
         <v/>
       </c>
       <c r="J166" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K166" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L166" t="str">
         <v/>
       </c>
-      <c r="M166">
-        <v>12.5</v>
+      <c r="M166" t="str">
+        <v/>
       </c>
       <c r="N166">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O166" t="str">
         <v/>
@@ -12101,7 +12176,7 @@
         <v/>
       </c>
       <c r="T166" t="str">
-        <v>3x3x33</v>
+        <v/>
       </c>
       <c r="U166" t="str">
         <v/>
@@ -12115,7 +12190,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v/>
+        <v>MZ1014 SP</v>
+      </c>
+      <c r="B167" t="str">
+        <v>MARZIPAN FLOWER APRICOT (مرصبان ورد مشمش)</v>
       </c>
       <c r="C167" t="str">
         <v/>
@@ -12130,28 +12208,28 @@
         <v/>
       </c>
       <c r="G167" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO - APRICOT (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي - مشمش)</v>
       </c>
       <c r="H167" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I167" t="str">
         <v/>
       </c>
       <c r="J167" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K167" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L167" t="str">
         <v/>
       </c>
-      <c r="M167">
-        <v>14</v>
+      <c r="M167" t="str">
+        <v/>
       </c>
       <c r="N167">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O167" t="str">
         <v/>
@@ -12183,7 +12261,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v/>
+        <v>MZ1015 SP</v>
+      </c>
+      <c r="B168" t="str">
+        <v>MARZIPAN  FLOWER WEAVED (مرصبان ورد جدل)</v>
       </c>
       <c r="C168" t="str">
         <v/>
@@ -12198,28 +12279,28 @@
         <v/>
       </c>
       <c r="G168" t="str">
-        <v>فانيلا - سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -  زلال البيض - جوز الهند</v>
+        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO (سكر - غلوكوز - لوز - نكهات طبيعية - فستث حلبي)</v>
       </c>
       <c r="H168" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I168" t="str">
         <v/>
       </c>
       <c r="J168" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K168" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L168" t="str">
         <v/>
       </c>
-      <c r="M168">
-        <v>12.5</v>
+      <c r="M168" t="str">
+        <v/>
       </c>
       <c r="N168">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O168" t="str">
         <v/>
@@ -12251,7 +12332,10 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v/>
+        <v>MZ1016 E</v>
+      </c>
+      <c r="B169" t="str">
+        <v>MARZIPAN  FINGERS (مرصبان اصابع)</v>
       </c>
       <c r="C169" t="str">
         <v/>
@@ -12266,28 +12350,28 @@
         <v/>
       </c>
       <c r="G169" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -  زلال البيض</v>
+        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO (سكر - غلوكوز - لوز - نكهات طبيعية - فستث حلبي)</v>
       </c>
       <c r="H169" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I169" t="str">
         <v/>
       </c>
       <c r="J169" t="str">
-        <v>Malban</v>
+        <v>Marzipan</v>
       </c>
       <c r="K169" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L169" t="str">
         <v/>
       </c>
-      <c r="M169">
-        <v>12.5</v>
+      <c r="M169" t="str">
+        <v/>
       </c>
       <c r="N169">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O169" t="str">
         <v/>
@@ -12305,7 +12389,7 @@
         <v/>
       </c>
       <c r="T169" t="str">
-        <v/>
+        <v>2.5x2x45</v>
       </c>
       <c r="U169" t="str">
         <v/>
@@ -12319,7 +12403,10 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v/>
+        <v>NG1000 S</v>
+      </c>
+      <c r="B170" t="str">
+        <v>APRICOT NOUGAT  CHOCOLATE (ابريكو نوغا شوكولا)</v>
       </c>
       <c r="C170" t="str">
         <v/>
@@ -12334,28 +12421,28 @@
         <v/>
       </c>
       <c r="G170" t="str">
-        <v>سكر- غلوكوز - ماندرين - لوز  - نشاء - حمض الليمون</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID - APRICOT - COCOA BUTTER - MILK CHOCOLATE - EGG WHITE - VANILLA - PISTACHIO (زبدة الككاو- سكر - غلوكوز -  - حمض الليمون - مشمش - زلال البيض - فانيلا - فستق حلبي - شوكولا حليب)</v>
       </c>
       <c r="H170" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I170" t="str">
         <v/>
       </c>
       <c r="J170" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K170" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L170" t="str">
         <v/>
       </c>
       <c r="M170">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="N170">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O170" t="str">
         <v/>
@@ -12387,7 +12474,10 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v/>
+        <v>NG1004 E</v>
+      </c>
+      <c r="B171" t="str">
+        <v>NOUGAT PISTACHIOS  CIGAR (نوغا فستق سيكار)</v>
       </c>
       <c r="C171" t="str">
         <v/>
@@ -12402,25 +12492,25 @@
         <v/>
       </c>
       <c r="G171" t="str">
-        <v>سكر - غلوكوز -بندق - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (PISTACH) - NATURAL FLAVOURS (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية فستقي  - نكهات طبيعية)</v>
       </c>
       <c r="H171" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I171" t="str">
         <v/>
       </c>
       <c r="J171" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K171" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L171" t="str">
         <v/>
       </c>
       <c r="M171">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N171">
         <v>18</v>
@@ -12441,7 +12531,7 @@
         <v/>
       </c>
       <c r="T171" t="str">
-        <v>4.5x1.5x43</v>
+        <v/>
       </c>
       <c r="U171" t="str">
         <v/>
@@ -12455,7 +12545,10 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v/>
+        <v>NG1009 S</v>
+      </c>
+      <c r="B172" t="str">
+        <v>NOUGAT TERESA (نوغا تيريزا)</v>
       </c>
       <c r="C172" t="str">
         <v/>
@@ -12470,19 +12563,19 @@
         <v/>
       </c>
       <c r="G172" t="str">
-        <v>مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID - APRICOT -   EGG WHITE - VANILLA - PISTACHIO (سكر - غلوكوز - حمض الليمون - مشمش - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H172" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I172" t="str">
         <v/>
       </c>
       <c r="J172" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K172" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L172" t="str">
         <v/>
@@ -12509,7 +12602,7 @@
         <v/>
       </c>
       <c r="T172" t="str">
-        <v>3.5x1.5x58</v>
+        <v/>
       </c>
       <c r="U172" t="str">
         <v/>
@@ -12523,7 +12616,10 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v/>
+        <v>NG1012 E</v>
+      </c>
+      <c r="B173" t="str">
+        <v>NOUGAT  ALMOND (SQUARE) (نوغا مربعة لوز)</v>
       </c>
       <c r="C173" t="str">
         <v/>
@@ -12538,25 +12634,25 @@
         <v/>
       </c>
       <c r="G173" t="str">
-        <v>سكر - غلوكوز - ماندرين - لوز - نشاء - حمض الليمون</v>
+        <v>SUGAR - GLUCOSE - EGG WHITE - VANILLA -ALMOND (سكر - غلوكوز - زلال البيض - فانيلا - لوز)</v>
       </c>
       <c r="H173" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I173" t="str">
         <v/>
       </c>
       <c r="J173" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K173" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L173" t="str">
         <v/>
       </c>
       <c r="M173">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N173">
         <v>18</v>
@@ -12591,7 +12687,10 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v/>
+        <v>NG1013 S</v>
+      </c>
+      <c r="B174" t="str">
+        <v>NOUGAT SESAME (نوغا سمسم)</v>
       </c>
       <c r="C174" t="str">
         <v/>
@@ -12606,19 +12705,19 @@
         <v/>
       </c>
       <c r="G174" t="str">
-        <v>مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - EGG WHITE - VANILLA - PISTACHIO  - SESAME (سمسم - سكر - غلوكوز - - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H174" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I174" t="str">
         <v/>
       </c>
       <c r="J174" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K174" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L174" t="str">
         <v/>
@@ -12659,7 +12758,10 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v/>
+        <v>NG1014 E</v>
+      </c>
+      <c r="B175" t="str">
+        <v>NOUGAT ALMOND (HAND WRAPPED) (نوغا لوز لف)</v>
       </c>
       <c r="C175" t="str">
         <v/>
@@ -12674,28 +12776,28 @@
         <v/>
       </c>
       <c r="G175" t="str">
-        <v>سكر - غلوكوز -بندق - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE  EGG WHITE - VANILLA -ALMOND (سكر - غلوكوز  - زلال البيض - فانيلا - لوز)</v>
       </c>
       <c r="H175" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I175" t="str">
         <v/>
       </c>
       <c r="J175" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K175" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L175" t="str">
         <v/>
       </c>
       <c r="M175">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="N175">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O175" t="str">
         <v/>
@@ -12727,7 +12829,10 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v/>
+        <v>NG1015 SP</v>
+      </c>
+      <c r="B176" t="str">
+        <v>NOUGAT ALMOND FINGERES  DARK CHOCOLATE (نوغا أصابع لوز شوكولا مر)</v>
       </c>
       <c r="C176" t="str">
         <v/>
@@ -12742,28 +12847,28 @@
         <v/>
       </c>
       <c r="G176" t="str">
-        <v>مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - - COCOA BUTTER - CHOCOLATE- EGG WHITE - VANILLA - ALMOND (سكر - غلوكوز - نشاء - مستكة - حمض الليمون - زبدة الكاكاو - شوكولا- زلال البيض - فانيلا - لوز)</v>
       </c>
       <c r="H176" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I176" t="str">
         <v/>
       </c>
       <c r="J176" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K176" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L176" t="str">
         <v/>
       </c>
       <c r="M176">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="N176">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O176" t="str">
         <v/>
@@ -12795,7 +12900,10 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v/>
+        <v>NG1016 SP</v>
+      </c>
+      <c r="B177" t="str">
+        <v>NOUGAT ALMOND FINGERES MILK CHOCOLATE (نوغا أصابع لوز شوكولا حلو)</v>
       </c>
       <c r="C177" t="str">
         <v/>
@@ -12810,28 +12918,28 @@
         <v/>
       </c>
       <c r="G177" t="str">
-        <v>سكر - غلوكوز - ماندرين - لوز  - نشاء - حمض الليمون</v>
+        <v>SUGAR - GLUCOSE - - COCOA BUTTER - CHOCOLATE- EGG WHITE - VANILLA - ALMOND (سكر - غلوكوز - نشاء - مستكة - حمض الليمون - زبدة الكاكاو - شوكولا- زلال البيض - فانيلا - لوز)</v>
       </c>
       <c r="H177" t="str">
-        <v/>
+        <v>SPECIAL</v>
       </c>
       <c r="I177" t="str">
         <v/>
       </c>
       <c r="J177" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K177" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L177" t="str">
         <v/>
       </c>
       <c r="M177">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="N177">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O177" t="str">
         <v/>
@@ -12863,7 +12971,10 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v/>
+        <v>NG1017 E</v>
+      </c>
+      <c r="B178" t="str">
+        <v>NOUGAT FRUITS RED (HAND WRAPPED) (نوغا فواكة أحمر لف)</v>
       </c>
       <c r="C178" t="str">
         <v/>
@@ -12878,28 +12989,28 @@
         <v/>
       </c>
       <c r="G178" t="str">
-        <v>سكر - غلوكوز - ماندرين - لوز  - نشاء - حمض الليمون</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - FRUIT GILATINE - NATURAL COLORS - NATURAL FLAVORS (سكر - غلوكوز  - حمض الليمون - زلال البيض - فانيلا - فستق حلبي - جيلاتين الفاكهة - الوان طبيعية - نكهات طبيعية)</v>
       </c>
       <c r="H178" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I178" t="str">
         <v/>
       </c>
       <c r="J178" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K178" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L178" t="str">
         <v/>
       </c>
       <c r="M178">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="N178">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O178" t="str">
         <v/>
@@ -12917,7 +13028,7 @@
         <v/>
       </c>
       <c r="T178" t="str">
-        <v>3x2.5x28</v>
+        <v/>
       </c>
       <c r="U178" t="str">
         <v/>
@@ -12931,7 +13042,10 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v/>
+        <v>NG1018 E</v>
+      </c>
+      <c r="B179" t="str">
+        <v>NOUGAT FRUIT GREEN (HAND WRAPPED) (نوغا فواكة أخضر لف)</v>
       </c>
       <c r="C179" t="str">
         <v/>
@@ -12946,25 +13060,25 @@
         <v/>
       </c>
       <c r="G179" t="str">
-        <v>مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - FRUIT GILATINE - NATURAL COLORS - NATURAL FLAVORS (سكر - غلوكوز  - حمض الليمون - زلال البيض - فانيلا - فستق حلبي - جيلاتين الفاكهة - الوان طبيعية - نكهات طبيعية)</v>
       </c>
       <c r="H179" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I179" t="str">
         <v/>
       </c>
       <c r="J179" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K179" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L179" t="str">
         <v/>
       </c>
       <c r="M179">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="N179">
         <v>18</v>
@@ -12985,7 +13099,7 @@
         <v/>
       </c>
       <c r="T179" t="str">
-        <v>2.5x2x58</v>
+        <v/>
       </c>
       <c r="U179" t="str">
         <v/>
@@ -12999,7 +13113,10 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v/>
+        <v>NG1019 E</v>
+      </c>
+      <c r="B180" t="str">
+        <v>NOUGAT PISTACHIOS (HAND WRAPPED) (نوغا لف)</v>
       </c>
       <c r="C180" t="str">
         <v/>
@@ -13014,25 +13131,25 @@
         <v/>
       </c>
       <c r="G180" t="str">
-        <v>مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - EGG WHITE - VANILLA - PISTACHIO (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H180" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I180" t="str">
         <v/>
       </c>
       <c r="J180" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K180" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L180" t="str">
         <v/>
       </c>
       <c r="M180">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="N180">
         <v>18</v>
@@ -13067,7 +13184,10 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v/>
+        <v>NG1020 S</v>
+      </c>
+      <c r="B181" t="str">
+        <v>NOUGAT SUPER (نوغا سوبر)</v>
       </c>
       <c r="C181" t="str">
         <v/>
@@ -13082,28 +13202,28 @@
         <v/>
       </c>
       <c r="G181" t="str">
-        <v>مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -زلال البيض - فانيلا</v>
+        <v>SUGAR - GLUCOSE - EGG WHITE - VANILLA - PISTACHIO (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H181" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I181" t="str">
         <v/>
       </c>
       <c r="J181" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K181" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L181" t="str">
         <v/>
       </c>
       <c r="M181">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="N181">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O181" t="str">
         <v/>
@@ -13135,7 +13255,10 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v/>
+        <v>NG1021 S</v>
+      </c>
+      <c r="B182" t="str">
+        <v>NOUGAT APRICOT SLICE (نوغا ابريكو حز)</v>
       </c>
       <c r="C182" t="str">
         <v/>
@@ -13150,28 +13273,28 @@
         <v/>
       </c>
       <c r="G182" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID - APRICOT -   EGG WHITE - VANILLA - PISTACHIO (سكر - غلوكوز -  - حمض الليمون - مشمش - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H182" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I182" t="str">
         <v/>
       </c>
       <c r="J182" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K182" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L182" t="str">
         <v/>
       </c>
       <c r="M182">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="N182">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O182" t="str">
         <v/>
@@ -13189,7 +13312,7 @@
         <v/>
       </c>
       <c r="T182" t="str">
-        <v>4x2.5x48</v>
+        <v/>
       </c>
       <c r="U182" t="str">
         <v/>
@@ -13203,7 +13326,10 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v/>
+        <v>NG1023 E</v>
+      </c>
+      <c r="B183" t="str">
+        <v>NOUGAT HAZELNUT (SQUARE) (نوغا بندق)</v>
       </c>
       <c r="C183" t="str">
         <v/>
@@ -13218,28 +13344,28 @@
         <v/>
       </c>
       <c r="G183" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - EGG WHITE - VANILLA -HAZELNUT (سكر - غلوكوز  - زلال البيض - فانيلا - بندق)</v>
       </c>
       <c r="H183" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I183" t="str">
         <v/>
       </c>
       <c r="J183" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K183" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L183" t="str">
         <v/>
       </c>
       <c r="M183">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="N183">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O183" t="str">
         <v/>
@@ -13271,7 +13397,10 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v/>
+        <v>NG1024 S</v>
+      </c>
+      <c r="B184" t="str">
+        <v>NOUGAT FRUIT (نوغا فواكهة)</v>
       </c>
       <c r="C184" t="str">
         <v/>
@@ -13286,16 +13415,16 @@
         <v/>
       </c>
       <c r="G184" t="str">
-        <v>سكر - غلوكوز- حمض الليمون - نشاء - مستكة - جوز</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - FRUIT GILATINE - NATURAL COLORS - NATURAL FLAVORS (سكر - غلوكوز  - حمض الليمون - زلال البيض - فانيلا - فستق حلبي - جيلاتين الفاكهة - الوان طبيعية - نكهات طبيعية)</v>
       </c>
       <c r="H184" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I184" t="str">
         <v/>
       </c>
       <c r="J184" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K184" t="str">
         <v/>
@@ -13307,7 +13436,7 @@
         <v>12.5</v>
       </c>
       <c r="N184">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O184" t="str">
         <v/>
@@ -13325,7 +13454,7 @@
         <v/>
       </c>
       <c r="T184" t="str">
-        <v>2.5x2.5x41</v>
+        <v/>
       </c>
       <c r="U184" t="str">
         <v/>
@@ -13339,7 +13468,10 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v/>
+        <v>NG1025 E</v>
+      </c>
+      <c r="B185" t="str">
+        <v>NOUGAT ALMOND CIGAR (نوغا لوز سيكار)</v>
       </c>
       <c r="C185" t="str">
         <v/>
@@ -13354,16 +13486,16 @@
         <v/>
       </c>
       <c r="G185" t="str">
-        <v>سكر - غلوكوز - جوز - حمض الليمون - نشاء - مستكة - ثمرة التين الطبيعي - سمسم</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL FLAVOURS (سكر - غلوكوز - زلال البيض - فانيلا - لوز -  نكهات طبيعية)</v>
       </c>
       <c r="H185" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I185" t="str">
         <v/>
       </c>
       <c r="J185" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K185" t="str">
         <v/>
@@ -13372,7 +13504,7 @@
         <v/>
       </c>
       <c r="M185">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N185">
         <v>18</v>
@@ -13407,7 +13539,10 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v/>
+        <v>NG1027 E</v>
+      </c>
+      <c r="B186" t="str">
+        <v>NOUGAT CIGAR PINK (نوغا سيكار زهر)</v>
       </c>
       <c r="C186" t="str">
         <v/>
@@ -13422,28 +13557,28 @@
         <v/>
       </c>
       <c r="G186" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -زلال البيض - فانيلا</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (PINK) - NATURAL FLAVOURS (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية  زهر  - نكهات طبيعية)</v>
       </c>
       <c r="H186" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I186" t="str">
         <v/>
       </c>
       <c r="J186" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K186" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L186" t="str">
         <v/>
       </c>
       <c r="M186">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="N186">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O186" t="str">
         <v/>
@@ -13475,7 +13610,10 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v/>
+        <v>NG1028 E</v>
+      </c>
+      <c r="B187" t="str">
+        <v>NOUGAT BERSHAN YELLOW (نوغا برشان اصفر)</v>
       </c>
       <c r="C187" t="str">
         <v/>
@@ -13490,16 +13628,16 @@
         <v/>
       </c>
       <c r="G187" t="str">
-        <v>دقيق القمح- زبدة - سكر - غلوكوز -  حمض الليمون - نشاء - مستكة -</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (YELOW) - E102 - BERSHAN (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية اصفر  - اي 102 - برشان)</v>
       </c>
       <c r="H187" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I187" t="str">
         <v/>
       </c>
       <c r="J187" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K187" t="str">
         <v/>
@@ -13508,10 +13646,10 @@
         <v/>
       </c>
       <c r="M187">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N187">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O187" t="str">
         <v/>
@@ -13529,7 +13667,7 @@
         <v/>
       </c>
       <c r="T187" t="str">
-        <v>3x1.75x58</v>
+        <v/>
       </c>
       <c r="U187" t="str">
         <v/>
@@ -13543,7 +13681,10 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v/>
+        <v>NG1029 E</v>
+      </c>
+      <c r="B188" t="str">
+        <v>NOUGAT BERSHAN ALMOND (نوغا برشان لوز)</v>
       </c>
       <c r="C188" t="str">
         <v/>
@@ -13558,28 +13699,28 @@
         <v/>
       </c>
       <c r="G188" t="str">
-        <v>مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -  جوز هند -زلال البيض - فانيلا</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - BERSHAN (سكر - غلوكوز - زلال البيض - فانيلا - لوز -  برشان)</v>
       </c>
       <c r="H188" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I188" t="str">
         <v/>
       </c>
       <c r="J188" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K188" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L188" t="str">
         <v/>
       </c>
       <c r="M188">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="N188">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O188" t="str">
         <v/>
@@ -13611,7 +13752,10 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v/>
+        <v>NG1030 E</v>
+      </c>
+      <c r="B189" t="str">
+        <v>NOUGAT BERSHAN  BLUE (نوغا برشان ازرق)</v>
       </c>
       <c r="C189" t="str">
         <v/>
@@ -13626,25 +13770,25 @@
         <v/>
       </c>
       <c r="G189" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (BLUE) - E132 - BERSHAN                                                                                       - (- برشان - سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية ازرق  - اي 132)</v>
       </c>
       <c r="H189" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I189" t="str">
         <v/>
       </c>
       <c r="J189" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K189" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L189" t="str">
         <v/>
       </c>
       <c r="M189">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N189">
         <v>18</v>
@@ -13665,7 +13809,7 @@
         <v/>
       </c>
       <c r="T189" t="str">
-        <v>3x2.5x38</v>
+        <v/>
       </c>
       <c r="U189" t="str">
         <v/>
@@ -13679,7 +13823,10 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v/>
+        <v>NG1031 E</v>
+      </c>
+      <c r="B190" t="str">
+        <v>NOUGAT BERSHAN PINK (نوغا برشان زهر)</v>
       </c>
       <c r="C190" t="str">
         <v/>
@@ -13694,25 +13841,25 @@
         <v/>
       </c>
       <c r="G190" t="str">
-        <v>سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة - سمسم - زلال البيض - فانيلا</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS PINK) - E129- BERSHAN                                                                                        - (- برشان - سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية  زهر  - اي 129)</v>
       </c>
       <c r="H190" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I190" t="str">
         <v/>
       </c>
       <c r="J190" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K190" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L190" t="str">
         <v/>
       </c>
       <c r="M190">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N190">
         <v>18</v>
@@ -13747,7 +13894,10 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v/>
+        <v>NG1032 E</v>
+      </c>
+      <c r="B191" t="str">
+        <v>NOUGAT BERSHAN PISTACHIO (نوغا برشان فستق)</v>
       </c>
       <c r="C191" t="str">
         <v/>
@@ -13762,28 +13912,28 @@
         <v/>
       </c>
       <c r="G191" t="str">
-        <v>سكر - غلوكوز - مشمش - حمض الليمون</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL FLAVOURS - BERSHAN (برشان -  سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي   - نكهات طبيعية)</v>
       </c>
       <c r="H191" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I191" t="str">
         <v/>
       </c>
       <c r="J191" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K191" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L191" t="str">
         <v/>
       </c>
       <c r="M191">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N191">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O191" t="str">
         <v/>
@@ -13801,7 +13951,7 @@
         <v/>
       </c>
       <c r="T191" t="str">
-        <v>2.5x1.75x63</v>
+        <v/>
       </c>
       <c r="U191" t="str">
         <v/>
@@ -13815,7 +13965,10 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v/>
+        <v>NG1033 E</v>
+      </c>
+      <c r="B192" t="str">
+        <v>NOUGAT BERSHAN ORANGE (نوغا برشان اورنج)</v>
       </c>
       <c r="C192" t="str">
         <v/>
@@ -13830,25 +13983,25 @@
         <v/>
       </c>
       <c r="G192" t="str">
-        <v>فستق حلبي-  سكر - غلوكوز - مستكة - نشاء - حمض الليمون - مشمش</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (ORANGE) - E110- BERSHAAN (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية برتقالي  - اي 110 -  برشان)</v>
       </c>
       <c r="H192" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I192" t="str">
         <v/>
       </c>
       <c r="J192" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K192" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L192" t="str">
         <v/>
       </c>
       <c r="M192">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N192">
         <v>18</v>
@@ -13869,7 +14022,7 @@
         <v/>
       </c>
       <c r="T192" t="str">
-        <v>2.5x2x38</v>
+        <v/>
       </c>
       <c r="U192" t="str">
         <v/>
@@ -13883,7 +14036,10 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v/>
+        <v>NG1034 E</v>
+      </c>
+      <c r="B193" t="str">
+        <v>NOUGAT BERSHAN PISTASH (نوغا برشان فستقي)</v>
       </c>
       <c r="C193" t="str">
         <v/>
@@ -13898,25 +14054,25 @@
         <v/>
       </c>
       <c r="G193" t="str">
-        <v>فستق حلبي-  سكر - غلوكوز - مستكة - نشاء - حمض الليمون - مشمش</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (PISTACH) - E133- E102 (برشان - سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية فستقي  - اي 133- اي 102)</v>
       </c>
       <c r="H193" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I193" t="str">
         <v/>
       </c>
       <c r="J193" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K193" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L193" t="str">
         <v/>
       </c>
       <c r="M193">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="N193">
         <v>18</v>
@@ -13951,7 +14107,10 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v/>
+        <v>NG1035 E</v>
+      </c>
+      <c r="B194" t="str">
+        <v>NOUGA FRUIT RED (SQUARE) (نوغا فواكهة احمر كاريه)</v>
       </c>
       <c r="C194" t="str">
         <v/>
@@ -13966,16 +14125,16 @@
         <v/>
       </c>
       <c r="G194" t="str">
-        <v>فستق حلبي-  سكر - غلوكوز - مستكة - نشاء - حمض الليمون - مشمش</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - FRUIT GILATINE - NATURAL COLORS - NATURAL FLAVORS (سكر - غلوكوز  - حمض الليمون - زلال البيض - فانيلا - فستق حلبي - جيلاتين الفاكهة - الوان طبيعية - نكهات طبيعية)</v>
       </c>
       <c r="H194" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I194" t="str">
         <v/>
       </c>
       <c r="J194" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K194" t="str">
         <v/>
@@ -13987,7 +14146,7 @@
         <v>13</v>
       </c>
       <c r="N194">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O194" t="str">
         <v/>
@@ -14019,7 +14178,10 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v/>
+        <v>NG1036 E</v>
+      </c>
+      <c r="B195" t="str">
+        <v>NOUGAT FRUIT GREEN (SQUARE) (نوغا فواكهة اخضر كاريه)</v>
       </c>
       <c r="C195" t="str">
         <v/>
@@ -14034,16 +14196,16 @@
         <v/>
       </c>
       <c r="G195" t="str">
-        <v>فستق حلبي-  سكر - غلوكوز - مستكة - نشاء - حمض الليمون - مشمش</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - FRUIT GILATINE - NATURAL COLORS - NATURAL FLAVORS (سكر - غلوكوز  - حمض الليمون - زلال البيض - فانيلا - فستق حلبي - جيلاتين الفاكهة - الوان طبيعية - نكهات طبيعية)</v>
       </c>
       <c r="H195" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I195" t="str">
         <v/>
       </c>
       <c r="J195" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K195" t="str">
         <v/>
@@ -14052,10 +14214,10 @@
         <v/>
       </c>
       <c r="M195">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="N195">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O195" t="str">
         <v/>
@@ -14087,7 +14249,10 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v/>
+        <v>NG1038 E</v>
+      </c>
+      <c r="B196" t="str">
+        <v>NOUGAT APRICOT (HAND WRAPPED) (نوغا ابريكو لف)</v>
       </c>
       <c r="C196" t="str">
         <v/>
@@ -14102,16 +14267,16 @@
         <v/>
       </c>
       <c r="G196" t="str">
-        <v>سكر - غلوكوز - مانغا طبيعية - حمض الليمون - نشاء</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID - APRICOT -   EGG WHITE - VANILLA - PISTACHIO (سكر - غلوكوز -  - حمض الليمون - مشمش - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H196" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I196" t="str">
         <v/>
       </c>
       <c r="J196" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K196" t="str">
         <v/>
@@ -14120,10 +14285,10 @@
         <v/>
       </c>
       <c r="M196">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="N196">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O196" t="str">
         <v/>
@@ -14155,7 +14320,10 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v/>
+        <v>NG1039 E</v>
+      </c>
+      <c r="B197" t="str">
+        <v>NOUGAT CIGAR YELLOW (نوغا سيكار اصفر)</v>
       </c>
       <c r="C197" t="str">
         <v/>
@@ -14170,16 +14338,16 @@
         <v/>
       </c>
       <c r="G197" t="str">
-        <v>سكر - غلوكوز - حمض الليمون - نشاء - مستكة</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (YELOW) - NATURAL FLAVOURS (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية اصفر  - نكهات طبيعية)</v>
       </c>
       <c r="H197" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I197" t="str">
         <v/>
       </c>
       <c r="J197" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K197" t="str">
         <v/>
@@ -14188,10 +14356,10 @@
         <v/>
       </c>
       <c r="M197">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N197">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O197" t="str">
         <v/>
@@ -14209,7 +14377,7 @@
         <v/>
       </c>
       <c r="T197" t="str">
-        <v>2.75x2.15x43</v>
+        <v/>
       </c>
       <c r="U197" t="str">
         <v/>
@@ -14223,7 +14391,10 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v/>
+        <v>NG1040 E</v>
+      </c>
+      <c r="B198" t="str">
+        <v>NOUGAT CIGAR BLUE (نوغا سيكار ازرق)</v>
       </c>
       <c r="C198" t="str">
         <v/>
@@ -14238,16 +14409,16 @@
         <v/>
       </c>
       <c r="G198" t="str">
-        <v>سكر - غلوكوز - نكهة الورد الطبيعية - حمض الليمون - نشاء- اي 129</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (BLUE) - NATURAL FLAVOURS (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعيةازرق  - نكهات طبيعية)</v>
       </c>
       <c r="H198" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I198" t="str">
         <v/>
       </c>
       <c r="J198" t="str">
-        <v>Malban</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K198" t="str">
         <v/>
@@ -14256,10 +14427,10 @@
         <v/>
       </c>
       <c r="M198">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N198">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O198" t="str">
         <v/>
@@ -14277,7 +14448,7 @@
         <v/>
       </c>
       <c r="T198" t="str">
-        <v>2.75x2.15x43</v>
+        <v/>
       </c>
       <c r="U198" t="str">
         <v/>
@@ -14291,10 +14462,10 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>MZ1000 E</v>
+        <v>NG1041 E</v>
       </c>
       <c r="B199" t="str">
-        <v>MARZIPAN COCQCINEL</v>
+        <v>NOUGAT CIGAR PISTACH (نوغا سيكار فستقي)</v>
       </c>
       <c r="C199" t="str">
         <v/>
@@ -14309,28 +14480,28 @@
         <v/>
       </c>
       <c r="G199" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (PISTACH) - NATURAL FLAVOURS (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية فستقي  - نكهات طبيعية)</v>
       </c>
       <c r="H199" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I199" t="str">
         <v/>
       </c>
       <c r="J199" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K199" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L199" t="str">
         <v/>
       </c>
-      <c r="M199" t="str">
-        <v/>
+      <c r="M199">
+        <v>14</v>
       </c>
       <c r="N199">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O199" t="str">
         <v/>
@@ -14362,10 +14533,10 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>MZ1001 E</v>
+        <v>NG1043  S</v>
       </c>
       <c r="B200" t="str">
-        <v>MARZIPAN FIG</v>
+        <v>NOUGAT APRICOT (LONG) (ابريكو نوغا طويل)</v>
       </c>
       <c r="C200" t="str">
         <v/>
@@ -14380,28 +14551,28 @@
         <v/>
       </c>
       <c r="G200" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID - APRICOT -   EGG WHITE - VANILLA - PISTACHIO (سكر - غلوكوز -  - حمض الليمون - مشمش - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H200" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I200" t="str">
         <v/>
       </c>
       <c r="J200" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K200" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L200" t="str">
         <v/>
       </c>
-      <c r="M200" t="str">
-        <v/>
+      <c r="M200">
+        <v>12.5</v>
       </c>
       <c r="N200">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O200" t="str">
         <v/>
@@ -14433,10 +14604,10 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>MZ1002 E</v>
+        <v>NG1044 E</v>
       </c>
       <c r="B201" t="str">
-        <v>MARZIPAN BANANA</v>
+        <v>NOUGAT APRICOT (SQUARE) (ابريكو نوغا كاريه)</v>
       </c>
       <c r="C201" t="str">
         <v/>
@@ -14451,28 +14622,28 @@
         <v/>
       </c>
       <c r="G201" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID - APRICOT -   EGG WHITE - VANILLA - PISTACHIO (سكر - غلوكوز -  - حمض الليمون - مشمش - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H201" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I201" t="str">
         <v/>
       </c>
       <c r="J201" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K201" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L201" t="str">
         <v/>
       </c>
-      <c r="M201" t="str">
-        <v/>
+      <c r="M201">
+        <v>13</v>
       </c>
       <c r="N201">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O201" t="str">
         <v/>
@@ -14504,10 +14675,10 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>MZ1003 E</v>
+        <v>NG1044 S</v>
       </c>
       <c r="B202" t="str">
-        <v>MARZIPAN TOMATO</v>
+        <v>NOUGAT KIWI (نوغا كيوي)</v>
       </c>
       <c r="C202" t="str">
         <v/>
@@ -14522,28 +14693,28 @@
         <v/>
       </c>
       <c r="G202" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - FRUIT GILATINE - NATURAL COLORS - NATURAL FLAVORS (سكر - غلوكوز  - حمض الليمون - زلال البيض - فانيلا - فستق حلبي - جيلاتين الفاكهة - الوان طبيعية - نكهات طبيعية)</v>
       </c>
       <c r="H202" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I202" t="str">
         <v/>
       </c>
       <c r="J202" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K202" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L202" t="str">
         <v/>
       </c>
-      <c r="M202" t="str">
-        <v/>
+      <c r="M202">
+        <v>12.5</v>
       </c>
       <c r="N202">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O202" t="str">
         <v/>
@@ -14575,10 +14746,10 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>MZ1004 E</v>
+        <v/>
       </c>
       <c r="B203" t="str">
-        <v>MARZIPAN</v>
+        <v>NOUGAT HONEY FINGERS (نوغا عسل اصابع)</v>
       </c>
       <c r="C203" t="str">
         <v/>
@@ -14593,7 +14764,7 @@
         <v/>
       </c>
       <c r="G203" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL HONEY (سكر - غلوكوز - زلال البيض - فانيلا - لوز - عسل طبيعي)</v>
       </c>
       <c r="H203" t="str">
         <v/>
@@ -14602,19 +14773,19 @@
         <v/>
       </c>
       <c r="J203" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K203" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L203" t="str">
         <v/>
       </c>
-      <c r="M203" t="str">
-        <v/>
+      <c r="M203">
+        <v>13</v>
       </c>
       <c r="N203">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O203" t="str">
         <v/>
@@ -14646,10 +14817,10 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>MZ1005 E</v>
+        <v/>
       </c>
       <c r="B204" t="str">
-        <v>MARZIPAN</v>
+        <v>NOUGAT BERSHAM  SQUARE (نوغا برشان كاريه)</v>
       </c>
       <c r="C204" t="str">
         <v/>
@@ -14664,7 +14835,7 @@
         <v/>
       </c>
       <c r="G204" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO (- برشان-  سكر - غلوكوز - نشاء - مستكة - حمض الليمون - زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H204" t="str">
         <v/>
@@ -14673,19 +14844,19 @@
         <v/>
       </c>
       <c r="J204" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K204" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L204" t="str">
         <v/>
       </c>
-      <c r="M204" t="str">
-        <v/>
+      <c r="M204">
+        <v>14</v>
       </c>
       <c r="N204">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O204" t="str">
         <v/>
@@ -14717,10 +14888,10 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>MZ1006 E</v>
+        <v/>
       </c>
       <c r="B205" t="str">
-        <v>MARZIPAN STRAWBERRY</v>
+        <v>NOUGAT KAJOU (نوغا كاجو)</v>
       </c>
       <c r="C205" t="str">
         <v/>
@@ -14735,7 +14906,7 @@
         <v/>
       </c>
       <c r="G205" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - EGG WHITE - VANILLA -  KAJOU (سكر - غلوكوز - كاجو - زلال البيض - فانيلا - كاجو)</v>
       </c>
       <c r="H205" t="str">
         <v/>
@@ -14744,19 +14915,19 @@
         <v/>
       </c>
       <c r="J205" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K205" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L205" t="str">
         <v/>
       </c>
-      <c r="M205" t="str">
-        <v/>
+      <c r="M205">
+        <v>11</v>
       </c>
       <c r="N205">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O205" t="str">
         <v/>
@@ -14788,10 +14959,10 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>MZ1007 E</v>
+        <v/>
       </c>
       <c r="B206" t="str">
-        <v>MARZIPAN PEAR</v>
+        <v>NOUGAT TEREZA MANDARINE (نوغا تيريزا مندرين)</v>
       </c>
       <c r="C206" t="str">
         <v/>
@@ -14806,7 +14977,7 @@
         <v/>
       </c>
       <c r="G206" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - CITRIC ACID -MANDARINE-   EGG WHITE - VANILLA - PISTACHIO (سكر - غلوكوز - حمض الليمون - ماندرين- زلال البيض - فانيلا - فستق حلبي)</v>
       </c>
       <c r="H206" t="str">
         <v/>
@@ -14815,10 +14986,10 @@
         <v/>
       </c>
       <c r="J206" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K206" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L206" t="str">
         <v/>
@@ -14826,8 +14997,8 @@
       <c r="M206" t="str">
         <v/>
       </c>
-      <c r="N206">
-        <v>25</v>
+      <c r="N206" t="str">
+        <v/>
       </c>
       <c r="O206" t="str">
         <v/>
@@ -14859,10 +15030,10 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>MZ1008 E</v>
+        <v/>
       </c>
       <c r="B207" t="str">
-        <v>MARZIPAN DATES</v>
+        <v>NOUGAT MAUVE CIGAR (نوغا بنفسجي سيكار)</v>
       </c>
       <c r="C207" t="str">
         <v/>
@@ -14877,7 +15048,7 @@
         <v/>
       </c>
       <c r="G207" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v>SUGAR - GLUCOSE - STARCH - MASTIC - CITRIC ACID -  EGG WHITE - VANILLA - PISTACHIO - NATURAL COLORS (MAUVE) - NATURAL FLAVOURS (سكر - غلوكوز - زلال البيض - فانيلا - فستق حلبي - الوان طبيعية بنفسجي  - نكهات طبيعية)</v>
       </c>
       <c r="H207" t="str">
         <v/>
@@ -14886,19 +15057,19 @@
         <v/>
       </c>
       <c r="J207" t="str">
-        <v>Marzipan</v>
+        <v>NOUGAT</v>
       </c>
       <c r="K207" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L207" t="str">
         <v/>
       </c>
-      <c r="M207" t="str">
-        <v/>
+      <c r="M207">
+        <v>14</v>
       </c>
       <c r="N207">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O207" t="str">
         <v/>
@@ -14930,10 +15101,10 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>MZ1009 E</v>
+        <v>DR 002</v>
       </c>
       <c r="B208" t="str">
-        <v>MARZIPAN EGGPLANT</v>
+        <v>DRAGEE SUPPER (ملبس سوبر)</v>
       </c>
       <c r="C208" t="str">
         <v/>
@@ -14948,28 +15119,28 @@
         <v/>
       </c>
       <c r="G208" t="str">
-        <v>SUGAR - GLUCOSE -ALMOND  - NATURAL COLORS - (سكر - غلوكوز - لوز - ملونات طبيعية)</v>
+        <v/>
       </c>
       <c r="H208" t="str">
-        <v/>
+        <v>SUPPER</v>
       </c>
       <c r="I208" t="str">
         <v/>
       </c>
       <c r="J208" t="str">
-        <v>Marzipan</v>
+        <v>DRAGE</v>
       </c>
       <c r="K208" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L208" t="str">
         <v/>
       </c>
-      <c r="M208" t="str">
-        <v/>
+      <c r="M208">
+        <v>16</v>
       </c>
       <c r="N208">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O208" t="str">
         <v/>
@@ -15001,10 +15172,10 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>MZ1010 E</v>
+        <v>DR 003</v>
       </c>
       <c r="B209" t="str">
-        <v>MARZIPAN  EYE OF DEER</v>
+        <v>PISTASHIO DRAGEE (ملبس فستق)</v>
       </c>
       <c r="C209" t="str">
         <v/>
@@ -15019,7 +15190,7 @@
         <v/>
       </c>
       <c r="G209" t="str">
-        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي -)</v>
+        <v/>
       </c>
       <c r="H209" t="str">
         <v/>
@@ -15028,19 +15199,19 @@
         <v/>
       </c>
       <c r="J209" t="str">
-        <v>Marzipan</v>
+        <v>DRAGE</v>
       </c>
       <c r="K209" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L209" t="str">
         <v/>
       </c>
-      <c r="M209" t="str">
-        <v/>
+      <c r="M209">
+        <v>18</v>
       </c>
       <c r="N209">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O209" t="str">
         <v/>
@@ -15058,7 +15229,7 @@
         <v/>
       </c>
       <c r="T209" t="str">
-        <v>4x2.75x38</v>
+        <v/>
       </c>
       <c r="U209" t="str">
         <v/>
@@ -15072,10 +15243,10 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>MZ1011 SP</v>
+        <v>DR 004</v>
       </c>
       <c r="B210" t="str">
-        <v>MARZIPAN KAAK</v>
+        <v>CHOCOLATE DRAGEE (ملبس شوكولا)</v>
       </c>
       <c r="C210" t="str">
         <v/>
@@ -15090,7 +15261,7 @@
         <v/>
       </c>
       <c r="G210" t="str">
-        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO - (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي -)</v>
+        <v/>
       </c>
       <c r="H210" t="str">
         <v/>
@@ -15099,19 +15270,19 @@
         <v/>
       </c>
       <c r="J210" t="str">
-        <v>Marzipan</v>
+        <v>DRAGE</v>
       </c>
       <c r="K210" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L210" t="str">
         <v/>
       </c>
-      <c r="M210" t="str">
-        <v/>
+      <c r="M210">
+        <v>12</v>
       </c>
       <c r="N210">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O210" t="str">
         <v/>
@@ -15143,10 +15314,10 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>MZ1012 SP</v>
+        <v>DR 005</v>
       </c>
       <c r="B211" t="str">
-        <v>MARZIPAN DAMA APRICOT</v>
+        <v>ALMOND METALLIC (ميتاليك لوز)</v>
       </c>
       <c r="C211" t="str">
         <v/>
@@ -15161,7 +15332,7 @@
         <v/>
       </c>
       <c r="G211" t="str">
-        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO  APRICOT - CITRIC ACID. (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي - مشمش - حمض الليمون)</v>
+        <v/>
       </c>
       <c r="H211" t="str">
         <v/>
@@ -15170,19 +15341,19 @@
         <v/>
       </c>
       <c r="J211" t="str">
-        <v>Marzipan</v>
+        <v>DRAGE</v>
       </c>
       <c r="K211" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L211" t="str">
         <v/>
       </c>
-      <c r="M211" t="str">
-        <v/>
+      <c r="M211">
+        <v>17</v>
       </c>
       <c r="N211">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O211" t="str">
         <v/>
@@ -15214,10 +15385,10 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>MZ1013 SP</v>
+        <v>DR 006</v>
       </c>
       <c r="B212" t="str">
-        <v>MARZIPAN FLOWER HREESE</v>
+        <v>CHOCOLATE METALLIC (ميتاليك شوكولا)</v>
       </c>
       <c r="C212" t="str">
         <v/>
@@ -15232,7 +15403,7 @@
         <v/>
       </c>
       <c r="G212" t="str">
-        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي -)</v>
+        <v/>
       </c>
       <c r="H212" t="str">
         <v/>
@@ -15241,19 +15412,19 @@
         <v/>
       </c>
       <c r="J212" t="str">
-        <v>Marzipan</v>
+        <v>DRAGE</v>
       </c>
       <c r="K212" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L212" t="str">
         <v/>
       </c>
-      <c r="M212" t="str">
-        <v/>
+      <c r="M212">
+        <v>13</v>
       </c>
       <c r="N212">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O212" t="str">
         <v/>
@@ -15285,10 +15456,10 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>MZ1014 SP</v>
+        <v>DR 007</v>
       </c>
       <c r="B213" t="str">
-        <v>MARZIPAN FLOWER APRICOT</v>
+        <v>CHOCOLATE ALMOND DARGEE (دراجي شوكولا بندق)</v>
       </c>
       <c r="C213" t="str">
         <v/>
@@ -15303,7 +15474,7 @@
         <v/>
       </c>
       <c r="G213" t="str">
-        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO - APRICOT (سكر - غلوكوز - لوز - نكهات طبيعية - فستق حلبي - مشمش)</v>
+        <v/>
       </c>
       <c r="H213" t="str">
         <v/>
@@ -15312,19 +15483,19 @@
         <v/>
       </c>
       <c r="J213" t="str">
-        <v>Marzipan</v>
+        <v>DRAGE</v>
       </c>
       <c r="K213" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L213" t="str">
         <v/>
       </c>
-      <c r="M213" t="str">
-        <v/>
+      <c r="M213">
+        <v>19</v>
       </c>
       <c r="N213">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O213" t="str">
         <v/>
@@ -15356,10 +15527,10 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>MZ1015 SP</v>
+        <v>DR 008</v>
       </c>
       <c r="B214" t="str">
-        <v>MARZIPAN  FLOWER WEAVED</v>
+        <v>CHOCOLATE HAZELNUTE DRAGEE (دراجي شوكولا لوز)</v>
       </c>
       <c r="C214" t="str">
         <v/>
@@ -15374,7 +15545,7 @@
         <v/>
       </c>
       <c r="G214" t="str">
-        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO (سكر - غلوكوز - لوز - نكهات طبيعية - فستث حلبي)</v>
+        <v/>
       </c>
       <c r="H214" t="str">
         <v/>
@@ -15383,19 +15554,19 @@
         <v/>
       </c>
       <c r="J214" t="str">
-        <v>Marzipan</v>
+        <v>DRAGE</v>
       </c>
       <c r="K214" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L214" t="str">
         <v/>
       </c>
-      <c r="M214" t="str">
-        <v/>
+      <c r="M214">
+        <v>19</v>
       </c>
       <c r="N214">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O214" t="str">
         <v/>
@@ -15427,10 +15598,10 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>MZ1016 E</v>
+        <v>DR 009</v>
       </c>
       <c r="B215" t="str">
-        <v>MARZIPAN  FINGERS</v>
+        <v>MUSHROOM DRAGEE (دراجي فطر)</v>
       </c>
       <c r="C215" t="str">
         <v/>
@@ -15445,7 +15616,7 @@
         <v/>
       </c>
       <c r="G215" t="str">
-        <v>SUGAR - GLUCOSE - NATURAL FLAVORS -  ALMOND - PISTACHIO (سكر - غلوكوز - لوز - نكهات طبيعية - فستث حلبي)</v>
+        <v/>
       </c>
       <c r="H215" t="str">
         <v/>
@@ -15454,19 +15625,19 @@
         <v/>
       </c>
       <c r="J215" t="str">
-        <v>Marzipan</v>
+        <v>DRAGE</v>
       </c>
       <c r="K215" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L215" t="str">
         <v/>
       </c>
-      <c r="M215" t="str">
-        <v/>
+      <c r="M215">
+        <v>22</v>
       </c>
       <c r="N215">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O215" t="str">
         <v/>
@@ -15484,7 +15655,7 @@
         <v/>
       </c>
       <c r="T215" t="str">
-        <v>2.5x2x45</v>
+        <v/>
       </c>
       <c r="U215" t="str">
         <v/>
@@ -15498,10 +15669,10 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v/>
+        <v>DR 010</v>
       </c>
       <c r="B216" t="str">
-        <v>APRICOT NOUGAT  CHOCOLATE</v>
+        <v>RAISIN DRAGEE (دراجي زبيب)</v>
       </c>
       <c r="C216" t="str">
         <v/>
@@ -15515,6 +15686,9 @@
       <c r="F216" t="str">
         <v/>
       </c>
+      <c r="G216" t="str">
+        <v/>
+      </c>
       <c r="H216" t="str">
         <v/>
       </c>
@@ -15522,19 +15696,19 @@
         <v/>
       </c>
       <c r="J216" t="str">
-        <v>NOUGAT</v>
+        <v>DRAGE</v>
       </c>
       <c r="K216" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L216" t="str">
         <v/>
       </c>
       <c r="M216">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N216">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O216" t="str">
         <v/>
@@ -15566,10 +15740,10 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v/>
+        <v>AR1000 E</v>
       </c>
       <c r="B217" t="str">
-        <v>NOUGAT PISTACHIOS  CIGAR</v>
+        <v>ARMOUCH BIG (عرموش كبير)</v>
       </c>
       <c r="C217" t="str">
         <v/>
@@ -15583,26 +15757,29 @@
       <c r="F217" t="str">
         <v/>
       </c>
+      <c r="G217" t="str">
+        <v>PISTACHIO - SUGAR (فستق حلبي - سكر)</v>
+      </c>
       <c r="H217" t="str">
-        <v/>
+        <v xml:space="preserve">EXTRA                       </v>
       </c>
       <c r="I217" t="str">
         <v/>
       </c>
       <c r="J217" t="str">
-        <v>NOUGAT</v>
+        <v>Armoush</v>
       </c>
       <c r="K217" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L217" t="str">
         <v/>
       </c>
-      <c r="M217">
-        <v>14</v>
-      </c>
-      <c r="N217">
-        <v>18</v>
+      <c r="M217" t="str">
+        <v/>
+      </c>
+      <c r="N217" t="str">
+        <v/>
       </c>
       <c r="O217" t="str">
         <v/>
@@ -15634,10 +15811,10 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v/>
+        <v>AR1001 E</v>
       </c>
       <c r="B218" t="str">
-        <v>NOUGAT TERESA</v>
+        <v>ARMOUCH MDM (عرموش وسط)</v>
       </c>
       <c r="C218" t="str">
         <v/>
@@ -15651,26 +15828,29 @@
       <c r="F218" t="str">
         <v/>
       </c>
+      <c r="G218" t="str">
+        <v>PISTACHIO - SUGAR (فستق حلبي - سكر)</v>
+      </c>
       <c r="H218" t="str">
-        <v/>
+        <v xml:space="preserve">EXTRA                        </v>
       </c>
       <c r="I218" t="str">
         <v/>
       </c>
       <c r="J218" t="str">
-        <v>NOUGAT</v>
+        <v>Armoush</v>
       </c>
       <c r="K218" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L218" t="str">
         <v/>
       </c>
-      <c r="M218">
-        <v>12.5</v>
-      </c>
-      <c r="N218">
-        <v>15</v>
+      <c r="M218" t="str">
+        <v/>
+      </c>
+      <c r="N218" t="str">
+        <v/>
       </c>
       <c r="O218" t="str">
         <v/>
@@ -15702,10 +15882,10 @@
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v/>
+        <v>AR1002 E</v>
       </c>
       <c r="B219" t="str">
-        <v>NOUGAT  ALMOND (SQUARE)</v>
+        <v>ARMOUCH SML (عرموش صغير)</v>
       </c>
       <c r="C219" t="str">
         <v/>
@@ -15719,26 +15899,29 @@
       <c r="F219" t="str">
         <v/>
       </c>
+      <c r="G219" t="str">
+        <v>PISTACHIO - SUGAR (فستق حلبي - سكر)</v>
+      </c>
       <c r="H219" t="str">
-        <v/>
+        <v xml:space="preserve">EXTRA                         </v>
       </c>
       <c r="I219" t="str">
         <v/>
       </c>
       <c r="J219" t="str">
-        <v>NOUGAT</v>
+        <v>Armoush</v>
       </c>
       <c r="K219" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L219" t="str">
         <v/>
       </c>
-      <c r="M219">
-        <v>14</v>
-      </c>
-      <c r="N219">
-        <v>18</v>
+      <c r="M219" t="str">
+        <v/>
+      </c>
+      <c r="N219" t="str">
+        <v/>
       </c>
       <c r="O219" t="str">
         <v/>
@@ -15770,10 +15953,10 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v/>
+        <v>AR1003 E</v>
       </c>
       <c r="B220" t="str">
-        <v>NOUGAT SESAME</v>
+        <v>ARMOUCH MEDIUM WITH ROSE (عرموش وسط بالورد)</v>
       </c>
       <c r="C220" t="str">
         <v/>
@@ -15787,26 +15970,29 @@
       <c r="F220" t="str">
         <v/>
       </c>
+      <c r="G220" t="str">
+        <v>PISTACHIO - SUGAR - NATURAL DRIED ROSES (فستق حلبي - سكر  - ورد مجفف)</v>
+      </c>
       <c r="H220" t="str">
-        <v/>
+        <v xml:space="preserve">EXTRA                         </v>
       </c>
       <c r="I220" t="str">
         <v/>
       </c>
       <c r="J220" t="str">
-        <v>NOUGAT</v>
+        <v>Armoush</v>
       </c>
       <c r="K220" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L220" t="str">
         <v/>
       </c>
-      <c r="M220">
-        <v>12.5</v>
-      </c>
-      <c r="N220">
-        <v>15</v>
+      <c r="M220" t="str">
+        <v/>
+      </c>
+      <c r="N220" t="str">
+        <v/>
       </c>
       <c r="O220" t="str">
         <v/>
@@ -15838,10 +16024,10 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v/>
+        <v>ML1001 E</v>
       </c>
       <c r="B221" t="str">
-        <v>NOUGAT ALMOND (HAND WRAPPED)</v>
+        <v>FIG MALBAN (SQUARE) (ملبن تين مربع)</v>
       </c>
       <c r="C221" t="str">
         <v/>
@@ -15855,26 +16041,29 @@
       <c r="F221" t="str">
         <v/>
       </c>
+      <c r="G221" t="str">
+        <v>SUGAR - GLUCOSE - MIXED NUTS - CITRIC ACID - STARCH - MASTIC - NATURAL FIGS FRUIT - SESAMI. (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة - ثمرة التين الطبيعي - سمسم)</v>
+      </c>
       <c r="H221" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I221" t="str">
         <v/>
       </c>
       <c r="J221" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K221" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L221" t="str">
         <v/>
       </c>
       <c r="M221">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="N221">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O221" t="str">
         <v/>
@@ -15906,10 +16095,10 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v/>
+        <v>ML1002 S</v>
       </c>
       <c r="B222" t="str">
-        <v>NOUGAT ALMOND FINGERES  DARK CHOCOLATE</v>
+        <v>PLAIN APRICOT (LONG) (أبريكو سادة طويل)</v>
       </c>
       <c r="C222" t="str">
         <v/>
@@ -15923,26 +16112,29 @@
       <c r="F222" t="str">
         <v/>
       </c>
+      <c r="G222" t="str">
+        <v>SUGAR - GLUCOSE - APRICOT- CITRIC ACID. (سكر - غلوكوز - مشمش - حمض الليمون)</v>
+      </c>
       <c r="H222" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I222" t="str">
         <v/>
       </c>
       <c r="J222" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K222" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L222" t="str">
         <v/>
       </c>
       <c r="M222">
+        <v>12</v>
+      </c>
+      <c r="N222">
         <v>15</v>
-      </c>
-      <c r="N222">
-        <v>20</v>
       </c>
       <c r="O222" t="str">
         <v/>
@@ -15974,10 +16166,10 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v/>
+        <v>ML1003 S</v>
       </c>
       <c r="B223" t="str">
-        <v>NOUGAT ALMOND FINGERES MILK CHOCOLATE</v>
+        <v>MALBAN WITH PISTACHIOS (SPREAD/ROUND) (ملبن مشروحة فستق مدوّر)</v>
       </c>
       <c r="C223" t="str">
         <v/>
@@ -15991,26 +16183,29 @@
       <c r="F223" t="str">
         <v/>
       </c>
+      <c r="G223" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H223" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I223" t="str">
         <v/>
       </c>
       <c r="J223" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K223" t="str">
-        <v>SPECIAL</v>
+        <v/>
       </c>
       <c r="L223" t="str">
         <v/>
       </c>
       <c r="M223">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="N223">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O223" t="str">
         <v/>
@@ -16028,7 +16223,7 @@
         <v/>
       </c>
       <c r="T223" t="str">
-        <v/>
+        <v>3.5x1.5x38</v>
       </c>
       <c r="U223" t="str">
         <v/>
@@ -16042,10 +16237,10 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v/>
+        <v>ML1005 S</v>
       </c>
       <c r="B224" t="str">
-        <v>NOUGAT FRUITS RED (HAND WRAPPED)</v>
+        <v>MALBAN WITH SESAME (ROUND) (ملبن سمسم مدوّر)</v>
       </c>
       <c r="C224" t="str">
         <v/>
@@ -16059,26 +16254,29 @@
       <c r="F224" t="str">
         <v/>
       </c>
+      <c r="G224" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC -  EGG WHITE - SESAMI. (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -  زلال البيض - سمسم - فانيلا)</v>
+      </c>
       <c r="H224" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I224" t="str">
         <v/>
       </c>
       <c r="J224" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K224" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L224" t="str">
         <v/>
       </c>
       <c r="M224">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="N224">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O224" t="str">
         <v/>
@@ -16110,10 +16308,10 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v/>
+        <v>ML1007 E</v>
       </c>
       <c r="B225" t="str">
-        <v>NOUGAT FRUIT GREEN (HAND WRAPPED)</v>
+        <v>MALBAN WITH COCONUT (HAND WRAPPED) (ملبن جوز هند لف)</v>
       </c>
       <c r="C225" t="str">
         <v/>
@@ -16127,17 +16325,20 @@
       <c r="F225" t="str">
         <v/>
       </c>
+      <c r="G225" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC -  EGG WHITE - COCONUT. (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة - زلال البيض جوز هند -فانيلا)</v>
+      </c>
       <c r="H225" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I225" t="str">
         <v/>
       </c>
       <c r="J225" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K225" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L225" t="str">
         <v/>
@@ -16178,10 +16379,10 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v/>
+        <v>ML1008 E</v>
       </c>
       <c r="B226" t="str">
-        <v>NOUGAT PISTACHIOS (HAND WRAPPED)</v>
+        <v>MALBAN WITH PISTACHIOS (SPREAD/SQUARE) (ملبن مشروحة فستق كاريه)</v>
       </c>
       <c r="C226" t="str">
         <v/>
@@ -16195,23 +16396,26 @@
       <c r="F226" t="str">
         <v/>
       </c>
+      <c r="G226" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H226" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I226" t="str">
         <v/>
       </c>
       <c r="J226" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K226" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L226" t="str">
         <v/>
       </c>
       <c r="M226">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="N226">
         <v>18</v>
@@ -16246,10 +16450,10 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v/>
+        <v>ML1009 E</v>
       </c>
       <c r="B227" t="str">
-        <v>NOUGAT SUPER</v>
+        <v>MALBAN ROSE (وردية)</v>
       </c>
       <c r="C227" t="str">
         <v/>
@@ -16263,26 +16467,29 @@
       <c r="F227" t="str">
         <v/>
       </c>
+      <c r="G227" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - NATURAL ROSE. (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - ورد الطبيعي)</v>
+      </c>
       <c r="H227" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I227" t="str">
         <v/>
       </c>
       <c r="J227" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K227" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L227" t="str">
         <v/>
       </c>
       <c r="M227">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="N227">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O227" t="str">
         <v/>
@@ -16314,10 +16521,10 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v/>
+        <v>ML1010 S</v>
       </c>
       <c r="B228" t="str">
-        <v>NOUGAT APRICOT SLICE</v>
+        <v>MALBAN SUGAR DUSTED (ملبن مغبّرة)</v>
       </c>
       <c r="C228" t="str">
         <v/>
@@ -16331,17 +16538,20 @@
       <c r="F228" t="str">
         <v/>
       </c>
+      <c r="G228" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H228" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I228" t="str">
         <v/>
       </c>
       <c r="J228" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K228" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L228" t="str">
         <v/>
@@ -16382,10 +16592,10 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v/>
+        <v>ML1011 E</v>
       </c>
       <c r="B229" t="str">
-        <v>NOUGAT HAZELNUT (SQUARE)</v>
+        <v>MALBAN SUGAR DUSTED (HAND WRAPPED) (ملبن مغبّرة لف)</v>
       </c>
       <c r="C229" t="str">
         <v/>
@@ -16399,26 +16609,29 @@
       <c r="F229" t="str">
         <v/>
       </c>
+      <c r="G229" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H229" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I229" t="str">
         <v/>
       </c>
       <c r="J229" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K229" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L229" t="str">
         <v/>
       </c>
       <c r="M229">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="N229">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O229" t="str">
         <v/>
@@ -16450,10 +16663,10 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v/>
+        <v>ML1012 S</v>
       </c>
       <c r="B230" t="str">
-        <v>NOUGAT FRUIT</v>
+        <v>MALBAN SUGAR DUSTED (SUPER) (مغبرة سوبر)</v>
       </c>
       <c r="C230" t="str">
         <v/>
@@ -16467,17 +16680,20 @@
       <c r="F230" t="str">
         <v/>
       </c>
+      <c r="G230" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H230" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I230" t="str">
         <v/>
       </c>
       <c r="J230" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K230" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L230" t="str">
         <v/>
@@ -16504,7 +16720,7 @@
         <v/>
       </c>
       <c r="T230" t="str">
-        <v/>
+        <v>3x3x33</v>
       </c>
       <c r="U230" t="str">
         <v/>
@@ -16518,10 +16734,10 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v/>
+        <v>ML1014 E</v>
       </c>
       <c r="B231" t="str">
-        <v>NOUGAT ALMOND CIGAR</v>
+        <v>MALBAN SUGAR DUSTED (CIGAR) (مغبرة سيكار)</v>
       </c>
       <c r="C231" t="str">
         <v/>
@@ -16535,17 +16751,20 @@
       <c r="F231" t="str">
         <v/>
       </c>
+      <c r="G231" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H231" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I231" t="str">
         <v/>
       </c>
       <c r="J231" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K231" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L231" t="str">
         <v/>
@@ -16586,10 +16805,10 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v/>
+        <v>ML1015 S</v>
       </c>
       <c r="B232" t="str">
-        <v>NOUGAT CIGAR PINK</v>
+        <v>MALBAN WITH COCONUT (ROUND) (ملبن مع جوز هند مدور)</v>
       </c>
       <c r="C232" t="str">
         <v/>
@@ -16603,26 +16822,29 @@
       <c r="F232" t="str">
         <v/>
       </c>
+      <c r="G232" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC -  EGG WHITE - COCONUT - VANILLA (فانيلا - سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -  زلال البيض - جوز الهند)</v>
+      </c>
       <c r="H232" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I232" t="str">
         <v/>
       </c>
       <c r="J232" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K232" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L232" t="str">
         <v/>
       </c>
       <c r="M232">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="N232">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O232" t="str">
         <v/>
@@ -16654,10 +16876,10 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v/>
+        <v>ML1016 S</v>
       </c>
       <c r="B233" t="str">
-        <v>NOUGAT BERSHAN YELLOW</v>
+        <v>ESQUIMO (اسكيمو)</v>
       </c>
       <c r="C233" t="str">
         <v/>
@@ -16671,26 +16893,29 @@
       <c r="F233" t="str">
         <v/>
       </c>
+      <c r="G233" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC -  EGG WHITE (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -  زلال البيض)</v>
+      </c>
       <c r="H233" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I233" t="str">
         <v/>
       </c>
       <c r="J233" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K233" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L233" t="str">
         <v/>
       </c>
       <c r="M233">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="N233">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O233" t="str">
         <v/>
@@ -16722,10 +16947,10 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v/>
+        <v>ML1017 E</v>
       </c>
       <c r="B234" t="str">
-        <v>NOUGAT BERSHAN ALMOND</v>
+        <v>MALBAN MANDARINE (HAND WRAPPED) (ملبن مندرين لف)</v>
       </c>
       <c r="C234" t="str">
         <v/>
@@ -16739,23 +16964,26 @@
       <c r="F234" t="str">
         <v/>
       </c>
+      <c r="G234" t="str">
+        <v>SUGAR - GLUCOSE - MANDARINE - ALMOND-  STARCH - CITRIC ACID. (سكر- غلوكوز - ماندرين - لوز  - نشاء - حمض الليمون)</v>
+      </c>
       <c r="H234" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I234" t="str">
         <v/>
       </c>
       <c r="J234" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K234" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L234" t="str">
         <v/>
       </c>
       <c r="M234">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="N234">
         <v>18</v>
@@ -16790,10 +17018,10 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v/>
+        <v>ML1018 S</v>
       </c>
       <c r="B235" t="str">
-        <v>NOUGAT BERSHAN  BLUE</v>
+        <v>MALBAN WITH HAZELNUT (SPREAD) (مشروحة بندق)</v>
       </c>
       <c r="C235" t="str">
         <v/>
@@ -16807,23 +17035,26 @@
       <c r="F235" t="str">
         <v/>
       </c>
+      <c r="G235" t="str">
+        <v>SUGAR - GLUCOSE - HAZELNUT - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز -بندق - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H235" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I235" t="str">
         <v/>
       </c>
       <c r="J235" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K235" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L235" t="str">
         <v/>
       </c>
       <c r="M235">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="N235">
         <v>18</v>
@@ -16844,7 +17075,7 @@
         <v/>
       </c>
       <c r="T235" t="str">
-        <v/>
+        <v>4.5x1.5x43</v>
       </c>
       <c r="U235" t="str">
         <v/>
@@ -16858,10 +17089,10 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v/>
+        <v>ML1019 S</v>
       </c>
       <c r="B236" t="str">
-        <v>NOUGAT BERSHAN PINK</v>
+        <v>MALBAN APRICOT  (ROUND) (ملبن ابريكو مدور)</v>
       </c>
       <c r="C236" t="str">
         <v/>
@@ -16875,26 +17106,29 @@
       <c r="F236" t="str">
         <v/>
       </c>
+      <c r="G236" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - APRICOT. (مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H236" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I236" t="str">
         <v/>
       </c>
       <c r="J236" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K236" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L236" t="str">
         <v/>
       </c>
       <c r="M236">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="N236">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O236" t="str">
         <v/>
@@ -16912,7 +17146,7 @@
         <v/>
       </c>
       <c r="T236" t="str">
-        <v/>
+        <v>3.5x1.5x58</v>
       </c>
       <c r="U236" t="str">
         <v/>
@@ -16926,10 +17160,10 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v/>
+        <v>ML1020 E</v>
       </c>
       <c r="B237" t="str">
-        <v>NOUGAT BERSHAN PISTACHIO</v>
+        <v>MALABN MONDARINE SIGAR (ملبن مندرين سيكار)</v>
       </c>
       <c r="C237" t="str">
         <v/>
@@ -16943,23 +17177,26 @@
       <c r="F237" t="str">
         <v/>
       </c>
+      <c r="G237" t="str">
+        <v>SUGAR - GLUCOSE - MANDARINE - ALMOND- STARCH - CITRIC ACID. (سكر - غلوكوز - ماندرين - لوز - نشاء - حمض الليمون)</v>
+      </c>
       <c r="H237" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I237" t="str">
         <v/>
       </c>
       <c r="J237" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K237" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L237" t="str">
         <v/>
       </c>
       <c r="M237">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="N237">
         <v>18</v>
@@ -16994,10 +17231,10 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v/>
+        <v>ML1021 S</v>
       </c>
       <c r="B238" t="str">
-        <v>NOUGAT BERSHAN ORANGE</v>
+        <v>MALBAN APRICOT (SLICE) (ملبن ابريكو حز)</v>
       </c>
       <c r="C238" t="str">
         <v/>
@@ -17011,26 +17248,29 @@
       <c r="F238" t="str">
         <v/>
       </c>
+      <c r="G238" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - APRICOT. (مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H238" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I238" t="str">
         <v/>
       </c>
       <c r="J238" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K238" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L238" t="str">
         <v/>
       </c>
       <c r="M238">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="N238">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O238" t="str">
         <v/>
@@ -17062,10 +17302,10 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v/>
+        <v>ML1022 E</v>
       </c>
       <c r="B239" t="str">
-        <v>NOUGAT BERSHAN PISTASH</v>
+        <v>MALBAN WITH HAZELNUT (SPREAD/SQUARE) (ملبن جوز)</v>
       </c>
       <c r="C239" t="str">
         <v/>
@@ -17079,26 +17319,29 @@
       <c r="F239" t="str">
         <v/>
       </c>
+      <c r="G239" t="str">
+        <v>SUGAR - GLUCOSE - HAZELNUT - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز -بندق - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H239" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I239" t="str">
         <v/>
       </c>
       <c r="J239" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K239" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L239" t="str">
         <v/>
       </c>
       <c r="M239">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N239">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O239" t="str">
         <v/>
@@ -17130,10 +17373,10 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v/>
+        <v>ML1023 S</v>
       </c>
       <c r="B240" t="str">
-        <v>NOUGA FRUIT RED (SQUARE)</v>
+        <v>MALBAN APRICOT (LONG) (ملبن ابريكو طويل)</v>
       </c>
       <c r="C240" t="str">
         <v/>
@@ -17147,23 +17390,26 @@
       <c r="F240" t="str">
         <v/>
       </c>
+      <c r="G240" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - APRICOT. (مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H240" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I240" t="str">
         <v/>
       </c>
       <c r="J240" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K240" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L240" t="str">
         <v/>
       </c>
       <c r="M240">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="N240">
         <v>15</v>
@@ -17198,10 +17444,10 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v/>
+        <v>ML1024 E</v>
       </c>
       <c r="B241" t="str">
-        <v>NOUGAT FRUIT GREEN (SQUARE)</v>
+        <v>MALBAN MANDARINE (SQUARE) (ملبن مندرين مربع)</v>
       </c>
       <c r="C241" t="str">
         <v/>
@@ -17215,23 +17461,26 @@
       <c r="F241" t="str">
         <v/>
       </c>
+      <c r="G241" t="str">
+        <v>SUGAR - GLUCOSE - MANDARINE - ALMOND- STARCH - CITRIC ACID. (سكر - غلوكوز - ماندرين - لوز  - نشاء - حمض الليمون)</v>
+      </c>
       <c r="H241" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I241" t="str">
         <v/>
       </c>
       <c r="J241" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K241" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L241" t="str">
         <v/>
       </c>
       <c r="M241">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="N241">
         <v>15</v>
@@ -17266,10 +17515,10 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v/>
+        <v>ML1025 S</v>
       </c>
       <c r="B242" t="str">
-        <v>NOUGAT APRICOT (HAND WRAPPED)</v>
+        <v>MALBAN MANDARINE (ملبن مندرين)</v>
       </c>
       <c r="C242" t="str">
         <v/>
@@ -17283,26 +17532,29 @@
       <c r="F242" t="str">
         <v/>
       </c>
+      <c r="G242" t="str">
+        <v>SUGAR - GLUCOSE - MANDARINE - ALMOND- STARCH - CITRIC ACID. (سكر - غلوكوز - ماندرين - لوز  - نشاء - حمض الليمون)</v>
+      </c>
       <c r="H242" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I242" t="str">
         <v/>
       </c>
       <c r="J242" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K242" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L242" t="str">
         <v/>
       </c>
       <c r="M242">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="N242">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O242" t="str">
         <v/>
@@ -17320,7 +17572,7 @@
         <v/>
       </c>
       <c r="T242" t="str">
-        <v/>
+        <v>3x2.5x28</v>
       </c>
       <c r="U242" t="str">
         <v/>
@@ -17334,10 +17586,10 @@
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v/>
+        <v>ML1026 E</v>
       </c>
       <c r="B243" t="str">
-        <v>NOUGAT CIGAR YELLOW</v>
+        <v>MALBAN APRICOT (SQUARE) (ملبن ابريكو كاريه)</v>
       </c>
       <c r="C243" t="str">
         <v/>
@@ -17351,23 +17603,26 @@
       <c r="F243" t="str">
         <v/>
       </c>
+      <c r="G243" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - APRICOT. (مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H243" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I243" t="str">
         <v/>
       </c>
       <c r="J243" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K243" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L243" t="str">
         <v/>
       </c>
       <c r="M243">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N243">
         <v>18</v>
@@ -17388,7 +17643,7 @@
         <v/>
       </c>
       <c r="T243" t="str">
-        <v/>
+        <v>2.5x2x58</v>
       </c>
       <c r="U243" t="str">
         <v/>
@@ -17402,10 +17657,10 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v/>
+        <v>ML1027 E</v>
       </c>
       <c r="B244" t="str">
-        <v>NOUGAT CIGAR BLUE</v>
+        <v>MALBAN APRICOT (HAND WRAPPED) (ملبن ابريكو لف)</v>
       </c>
       <c r="C244" t="str">
         <v/>
@@ -17419,23 +17674,26 @@
       <c r="F244" t="str">
         <v/>
       </c>
+      <c r="G244" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - APRICOT. (مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H244" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I244" t="str">
         <v/>
       </c>
       <c r="J244" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K244" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L244" t="str">
         <v/>
       </c>
       <c r="M244">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="N244">
         <v>18</v>
@@ -17470,10 +17728,10 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v/>
+        <v>ML1028 S</v>
       </c>
       <c r="B245" t="str">
-        <v>NOUGAT CIGAR PISTACH</v>
+        <v>COCKTAIL NOUGAT (كوكتيل نوغا)</v>
       </c>
       <c r="C245" t="str">
         <v/>
@@ -17487,26 +17745,29 @@
       <c r="F245" t="str">
         <v/>
       </c>
+      <c r="G245" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - APRICOT- EGG WHITE - VANILLA. (مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -زلال البيض - فانيلا)</v>
+      </c>
       <c r="H245" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I245" t="str">
         <v/>
       </c>
       <c r="J245" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K245" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L245" t="str">
         <v/>
       </c>
       <c r="M245">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="N245">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O245" t="str">
         <v/>
@@ -17538,10 +17799,10 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v/>
+        <v>ML1031 S</v>
       </c>
       <c r="B246" t="str">
-        <v>NOUGAT APRICOT (LONG)</v>
+        <v>MALBAN WITH PISTACHIOS (ROUND) (مبرومة حب)</v>
       </c>
       <c r="C246" t="str">
         <v/>
@@ -17555,26 +17816,29 @@
       <c r="F246" t="str">
         <v/>
       </c>
+      <c r="G246" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H246" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I246" t="str">
         <v/>
       </c>
       <c r="J246" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K246" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L246" t="str">
         <v/>
       </c>
       <c r="M246">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="N246">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O246" t="str">
         <v/>
@@ -17592,7 +17856,7 @@
         <v/>
       </c>
       <c r="T246" t="str">
-        <v/>
+        <v>4x2.5x48</v>
       </c>
       <c r="U246" t="str">
         <v/>
@@ -17606,10 +17870,10 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v/>
+        <v>ML1032 S</v>
       </c>
       <c r="B247" t="str">
-        <v>NOUGAT APRICOT (SQUARE)</v>
+        <v>MALBAN TRIANGLE (مثلثة سوبر)</v>
       </c>
       <c r="C247" t="str">
         <v/>
@@ -17623,23 +17887,26 @@
       <c r="F247" t="str">
         <v/>
       </c>
+      <c r="G247" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H247" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I247" t="str">
         <v/>
       </c>
       <c r="J247" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K247" t="str">
-        <v>EXTRA</v>
+        <v/>
       </c>
       <c r="L247" t="str">
         <v/>
       </c>
       <c r="M247">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="N247">
         <v>18</v>
@@ -17674,10 +17941,10 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v/>
+        <v>ML1034</v>
       </c>
       <c r="B248" t="str">
-        <v>NOUGAT KIWI</v>
+        <v>MALBAN  SUGAR DUSTED WALNUT (مغبرة جوز)</v>
       </c>
       <c r="C248" t="str">
         <v/>
@@ -17691,6 +17958,9 @@
       <c r="F248" t="str">
         <v/>
       </c>
+      <c r="G248" t="str">
+        <v>SUGAR - GLUCOSE - WALNUT - CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز- حمض الليمون - نشاء - مستكة - جوز)</v>
+      </c>
       <c r="H248" t="str">
         <v/>
       </c>
@@ -17698,10 +17968,10 @@
         <v/>
       </c>
       <c r="J248" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K248" t="str">
-        <v>SUPER</v>
+        <v/>
       </c>
       <c r="L248" t="str">
         <v/>
@@ -17710,7 +17980,7 @@
         <v>12.5</v>
       </c>
       <c r="N248">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O248" t="str">
         <v/>
@@ -17728,7 +17998,7 @@
         <v/>
       </c>
       <c r="T248" t="str">
-        <v/>
+        <v>2.5x2.5x41</v>
       </c>
       <c r="U248" t="str">
         <v/>
@@ -17742,10 +18012,10 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v/>
+        <v>ML1035</v>
       </c>
       <c r="B249" t="str">
-        <v>NOUGAT HONEY FINGERS</v>
+        <v>MALBAN FIGS CIGAR (ملبن تين سيكار)</v>
       </c>
       <c r="C249" t="str">
         <v/>
@@ -17759,6 +18029,9 @@
       <c r="F249" t="str">
         <v/>
       </c>
+      <c r="G249" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - NATURAL FIGS FRUIT - SESAMI. (سكر - غلوكوز - جوز - حمض الليمون - نشاء - مستكة - ثمرة التين الطبيعي - سمسم)</v>
+      </c>
       <c r="H249" t="str">
         <v/>
       </c>
@@ -17766,7 +18039,7 @@
         <v/>
       </c>
       <c r="J249" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K249" t="str">
         <v/>
@@ -17775,10 +18048,10 @@
         <v/>
       </c>
       <c r="M249">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="N249">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O249" t="str">
         <v/>
@@ -17810,10 +18083,10 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v/>
+        <v>ML1036 S</v>
       </c>
       <c r="B250" t="str">
-        <v>NOUGAT BERSHAM  SQUARE</v>
+        <v>MALBAN NOUGAT (ملبن نوغا)</v>
       </c>
       <c r="C250" t="str">
         <v/>
@@ -17827,14 +18100,17 @@
       <c r="F250" t="str">
         <v/>
       </c>
+      <c r="G250" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - EGG WHITE - VANILLA. (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -زلال البيض - فانيلا)</v>
+      </c>
       <c r="H250" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I250" t="str">
         <v/>
       </c>
       <c r="J250" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K250" t="str">
         <v/>
@@ -17843,10 +18119,10 @@
         <v/>
       </c>
       <c r="M250">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="N250">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O250" t="str">
         <v/>
@@ -17878,10 +18154,10 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v/>
+        <v>ML 1037</v>
       </c>
       <c r="B251" t="str">
-        <v>NOUGAT KAJOU</v>
+        <v>MALBAN WAFER (ملبن ويفر)</v>
       </c>
       <c r="C251" t="str">
         <v/>
@@ -17895,6 +18171,9 @@
       <c r="F251" t="str">
         <v/>
       </c>
+      <c r="G251" t="str">
+        <v>WHEAT FLOUR- BUTTER- SUGAR - GLUCOSE - CITRIC ACID - STARCH - MASTIC - WAFER              دقيق القمح- زبدة - سكر - غلوكوز -  حمض الليمون - نشاء - مستكة - (دقيق القمح- زبدة - سكر - غلوكوز -  حمض الليمون - نشاء - مستكة -)</v>
+      </c>
       <c r="H251" t="str">
         <v/>
       </c>
@@ -17902,7 +18181,7 @@
         <v/>
       </c>
       <c r="J251" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K251" t="str">
         <v/>
@@ -17911,7 +18190,7 @@
         <v/>
       </c>
       <c r="M251">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N251">
         <v>15</v>
@@ -17932,7 +18211,7 @@
         <v/>
       </c>
       <c r="T251" t="str">
-        <v/>
+        <v>3x1.75x58</v>
       </c>
       <c r="U251" t="str">
         <v/>
@@ -17946,10 +18225,10 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v/>
+        <v>ML1039 S</v>
       </c>
       <c r="B252" t="str">
-        <v>NOUGAT TEREZA MANDARINE</v>
+        <v>MALBAN COCKTAIL COCONUT (ROUND) (ملبن كوكتيل جوز الهند مدور)</v>
       </c>
       <c r="C252" t="str">
         <v/>
@@ -17963,14 +18242,17 @@
       <c r="F252" t="str">
         <v/>
       </c>
+      <c r="G252" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - APRICOT- EGG WHITE - VANILLA - COCONUT. (مشمش- سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة -  جوز هند -زلال البيض - فانيلا)</v>
+      </c>
       <c r="H252" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I252" t="str">
         <v/>
       </c>
       <c r="J252" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K252" t="str">
         <v/>
@@ -17978,11 +18260,11 @@
       <c r="L252" t="str">
         <v/>
       </c>
-      <c r="M252" t="str">
-        <v/>
-      </c>
-      <c r="N252" t="str">
-        <v/>
+      <c r="M252">
+        <v>12.5</v>
+      </c>
+      <c r="N252">
+        <v>15</v>
       </c>
       <c r="O252" t="str">
         <v/>
@@ -18014,10 +18296,10 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v/>
+        <v>ML1041 E</v>
       </c>
       <c r="B253" t="str">
-        <v>NOUGAT MAUVE CIGAR</v>
+        <v>MALBAN ROUND (HAND WRAPPED) (مبرومة سوبر)</v>
       </c>
       <c r="C253" t="str">
         <v/>
@@ -18031,14 +18313,17 @@
       <c r="F253" t="str">
         <v/>
       </c>
+      <c r="G253" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC - (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H253" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I253" t="str">
         <v/>
       </c>
       <c r="J253" t="str">
-        <v>NOUGAT</v>
+        <v>Malban</v>
       </c>
       <c r="K253" t="str">
         <v/>
@@ -18047,7 +18332,7 @@
         <v/>
       </c>
       <c r="M253">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="N253">
         <v>18</v>
@@ -18068,7 +18353,7 @@
         <v/>
       </c>
       <c r="T253" t="str">
-        <v/>
+        <v>3x2.5x38</v>
       </c>
       <c r="U253" t="str">
         <v/>
@@ -18082,10 +18367,10 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v/>
+        <v>ML1042 E</v>
       </c>
       <c r="B254" t="str">
-        <v>ALMOND DRAGEE</v>
+        <v>MALBAN SESAME (HAND WRAPPED) (ملبن سمسم لف)</v>
       </c>
       <c r="C254" t="str">
         <v/>
@@ -18099,14 +18384,17 @@
       <c r="F254" t="str">
         <v/>
       </c>
+      <c r="G254" t="str">
+        <v>SUGAR - GLUCOSE - PISTACHIO - CITRIC ACID - STARCH - MASTIC -   SESAMI - EGG WHITE - VANILLA. (سكر - غلوكوز - فستق حلبي - حمض الليمون - نشاء - مستكة - سمسم - زلال البيض - فانيلا)</v>
+      </c>
       <c r="H254" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I254" t="str">
         <v/>
       </c>
       <c r="J254" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K254" t="str">
         <v/>
@@ -18115,10 +18403,10 @@
         <v/>
       </c>
       <c r="M254">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="N254">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O254" t="str">
         <v/>
@@ -18150,10 +18438,10 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v/>
+        <v>ML1044 E</v>
       </c>
       <c r="B255" t="str">
-        <v>DRAGEE SUPPER</v>
+        <v>PLAIN APRICOT (SQUARE) (ابريكو سادة كاريه)</v>
       </c>
       <c r="C255" t="str">
         <v/>
@@ -18167,26 +18455,29 @@
       <c r="F255" t="str">
         <v/>
       </c>
+      <c r="G255" t="str">
+        <v>SUGAR - GLUCOSE - APRICOT- MASTIC - STARCH - CITRIC ACID. (سكر - غلوكوز - مشمش - حمض الليمون)</v>
+      </c>
       <c r="H255" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I255" t="str">
         <v/>
       </c>
       <c r="J255" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K255" t="str">
-        <v>SUPPER</v>
+        <v/>
       </c>
       <c r="L255" t="str">
         <v/>
       </c>
       <c r="M255">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N255">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O255" t="str">
         <v/>
@@ -18204,7 +18495,7 @@
         <v/>
       </c>
       <c r="T255" t="str">
-        <v/>
+        <v>2.5x1.75x63</v>
       </c>
       <c r="U255" t="str">
         <v/>
@@ -18218,10 +18509,10 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v/>
+        <v>ML1045 S</v>
       </c>
       <c r="B256" t="str">
-        <v>PISTASHIO DRAGEE</v>
+        <v>MOULOUKI  GOLD (ملوكي ذهبي)</v>
       </c>
       <c r="C256" t="str">
         <v/>
@@ -18235,14 +18526,17 @@
       <c r="F256" t="str">
         <v/>
       </c>
+      <c r="G256" t="str">
+        <v>SUGAR - GLUCOSE  - PISTACHIO - NATURAL FRUITS- MASTIC - STARCH - CITRIC ACID - APRICOT (فستق حلبي-  سكر - غلوكوز - مستكة - نشاء - حمض الليمون - مشمش)</v>
+      </c>
       <c r="H256" t="str">
-        <v/>
+        <v>SUPER</v>
       </c>
       <c r="I256" t="str">
         <v/>
       </c>
       <c r="J256" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K256" t="str">
         <v/>
@@ -18251,11 +18545,11 @@
         <v/>
       </c>
       <c r="M256">
+        <v>13</v>
+      </c>
+      <c r="N256">
         <v>18</v>
       </c>
-      <c r="N256">
-        <v>26</v>
-      </c>
       <c r="O256" t="str">
         <v/>
       </c>
@@ -18272,7 +18566,7 @@
         <v/>
       </c>
       <c r="T256" t="str">
-        <v/>
+        <v>2.5x2x38</v>
       </c>
       <c r="U256" t="str">
         <v/>
@@ -18286,10 +18580,10 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v/>
+        <v>ML1046 E</v>
       </c>
       <c r="B257" t="str">
-        <v>CHOCOLATE DRAGEE</v>
+        <v>MOULOUKI CIGAR (ملوكي سيكار)</v>
       </c>
       <c r="C257" t="str">
         <v/>
@@ -18303,14 +18597,17 @@
       <c r="F257" t="str">
         <v/>
       </c>
+      <c r="G257" t="str">
+        <v>SUGAR - GLUCOSE  - PISTACHIO - NATURAL FRUITS- MASTIC - STARCH - CITRIC ACID - APRICOT (فستق حلبي-  سكر - غلوكوز - مستكة - نشاء - حمض الليمون - مشمش)</v>
+      </c>
       <c r="H257" t="str">
-        <v/>
+        <v>EXTRA</v>
       </c>
       <c r="I257" t="str">
         <v/>
       </c>
       <c r="J257" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K257" t="str">
         <v/>
@@ -18319,10 +18616,10 @@
         <v/>
       </c>
       <c r="M257">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="N257">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O257" t="str">
         <v/>
@@ -18354,10 +18651,10 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v/>
+        <v>ML 1047</v>
       </c>
       <c r="B258" t="str">
-        <v>ALMOND METALLIC</v>
+        <v>MOULOUKI CARRE (ملوكي كاريه)</v>
       </c>
       <c r="C258" t="str">
         <v/>
@@ -18371,6 +18668,9 @@
       <c r="F258" t="str">
         <v/>
       </c>
+      <c r="G258" t="str">
+        <v>SUGAR - GLUCOSE  - PISTACHIO - NATURAL FRUITS- MASTIC - STARCH - CITRIC ACID - APRICOT (فستق حلبي-  سكر - غلوكوز - مستكة - نشاء - حمض الليمون - مشمش)</v>
+      </c>
       <c r="H258" t="str">
         <v/>
       </c>
@@ -18378,7 +18678,7 @@
         <v/>
       </c>
       <c r="J258" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K258" t="str">
         <v/>
@@ -18387,10 +18687,10 @@
         <v/>
       </c>
       <c r="M258">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N258">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O258" t="str">
         <v/>
@@ -18422,10 +18722,10 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v/>
+        <v>ML 1048</v>
       </c>
       <c r="B259" t="str">
-        <v>CHOCOLATE METALLIC</v>
+        <v>MOULOUKI (HAND WRAPPED) (ملوكي لف)</v>
       </c>
       <c r="C259" t="str">
         <v/>
@@ -18439,6 +18739,9 @@
       <c r="F259" t="str">
         <v/>
       </c>
+      <c r="G259" t="str">
+        <v>SUGAR - GLUCOSE  - PISTACHIO - NATURAL FRUITS- MASTIC - STARCH - CITRIC ACID - APRICOT (فستق حلبي-  سكر - غلوكوز - مستكة - نشاء - حمض الليمون - مشمش)</v>
+      </c>
       <c r="H259" t="str">
         <v/>
       </c>
@@ -18446,7 +18749,7 @@
         <v/>
       </c>
       <c r="J259" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K259" t="str">
         <v/>
@@ -18455,10 +18758,10 @@
         <v/>
       </c>
       <c r="M259">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="N259">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O259" t="str">
         <v/>
@@ -18493,7 +18796,7 @@
         <v/>
       </c>
       <c r="B260" t="str">
-        <v>CHOCOLATE ALMOND DARGEE</v>
+        <v>RA7A MANGO (راحة مانغو)</v>
       </c>
       <c r="C260" t="str">
         <v/>
@@ -18507,6 +18810,9 @@
       <c r="F260" t="str">
         <v/>
       </c>
+      <c r="G260" t="str">
+        <v>SUGAR - GLUCOSE -NATURAL MANGO - CITRIC ACID - STARCH (سكر - غلوكوز - مانغا طبيعية - حمض الليمون - نشاء)</v>
+      </c>
       <c r="H260" t="str">
         <v/>
       </c>
@@ -18514,7 +18820,7 @@
         <v/>
       </c>
       <c r="J260" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K260" t="str">
         <v/>
@@ -18523,10 +18829,10 @@
         <v/>
       </c>
       <c r="M260">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="N260">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="O260" t="str">
         <v/>
@@ -18561,7 +18867,7 @@
         <v/>
       </c>
       <c r="B261" t="str">
-        <v>CHOCOLATE HAZELNUTE DRAGEE</v>
+        <v>LOKUM MASTIK (راحة مستكة)</v>
       </c>
       <c r="C261" t="str">
         <v/>
@@ -18575,6 +18881,9 @@
       <c r="F261" t="str">
         <v/>
       </c>
+      <c r="G261" t="str">
+        <v>SUGAR - GLUCOSE- CITRIC ACID - STARCH - MASTIC (سكر - غلوكوز - حمض الليمون - نشاء - مستكة)</v>
+      </c>
       <c r="H261" t="str">
         <v/>
       </c>
@@ -18582,7 +18891,7 @@
         <v/>
       </c>
       <c r="J261" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K261" t="str">
         <v/>
@@ -18591,10 +18900,10 @@
         <v/>
       </c>
       <c r="M261">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N261">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O261" t="str">
         <v/>
@@ -18612,7 +18921,7 @@
         <v/>
       </c>
       <c r="T261" t="str">
-        <v/>
+        <v>2.75x2.15x43</v>
       </c>
       <c r="U261" t="str">
         <v/>
@@ -18629,7 +18938,7 @@
         <v/>
       </c>
       <c r="B262" t="str">
-        <v>MUSHROOM DRAGEE</v>
+        <v>LOKUM ROSE (راحة ورد)</v>
       </c>
       <c r="C262" t="str">
         <v/>
@@ -18643,6 +18952,9 @@
       <c r="F262" t="str">
         <v/>
       </c>
+      <c r="G262" t="str">
+        <v>SUGAR - GLUCOSE -ROSE  NATURAL FLAVOR - CITRIC ACID - STARCH - MASTIC- E129 (سكر - غلوكوز - نكهة الورد الطبيعية - حمض الليمون - نشاء- اي 129)</v>
+      </c>
       <c r="H262" t="str">
         <v/>
       </c>
@@ -18650,7 +18962,7 @@
         <v/>
       </c>
       <c r="J262" t="str">
-        <v>DRAGE</v>
+        <v>Malban</v>
       </c>
       <c r="K262" t="str">
         <v/>
@@ -18659,10 +18971,10 @@
         <v/>
       </c>
       <c r="M262">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N262">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="O262" t="str">
         <v/>
@@ -18680,7 +18992,7 @@
         <v/>
       </c>
       <c r="T262" t="str">
-        <v/>
+        <v>2.75x2.15x43</v>
       </c>
       <c r="U262" t="str">
         <v/>
@@ -18689,80 +19001,12 @@
         <v/>
       </c>
       <c r="W262" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="str">
-        <v/>
-      </c>
-      <c r="B263" t="str">
-        <v>RAISIN DRAGEE</v>
-      </c>
-      <c r="C263" t="str">
-        <v/>
-      </c>
-      <c r="D263" t="str">
-        <v/>
-      </c>
-      <c r="E263" t="str">
-        <v/>
-      </c>
-      <c r="F263" t="str">
-        <v/>
-      </c>
-      <c r="H263" t="str">
-        <v/>
-      </c>
-      <c r="I263" t="str">
-        <v/>
-      </c>
-      <c r="J263" t="str">
-        <v>DRAGE</v>
-      </c>
-      <c r="K263" t="str">
-        <v/>
-      </c>
-      <c r="L263" t="str">
-        <v/>
-      </c>
-      <c r="M263">
-        <v>16</v>
-      </c>
-      <c r="N263">
-        <v>22</v>
-      </c>
-      <c r="O263" t="str">
-        <v/>
-      </c>
-      <c r="P263" t="str">
-        <v/>
-      </c>
-      <c r="Q263" t="str">
-        <v/>
-      </c>
-      <c r="R263" t="str">
-        <v/>
-      </c>
-      <c r="S263" t="str">
-        <v/>
-      </c>
-      <c r="T263" t="str">
-        <v/>
-      </c>
-      <c r="U263" t="str">
-        <v/>
-      </c>
-      <c r="V263" t="str">
-        <v/>
-      </c>
-      <c r="W263" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W263"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W262"/>
   </ignoredErrors>
 </worksheet>
 </file>